--- a/BANK_MarketRisk_clean.xlsx
+++ b/BANK_MarketRisk_clean.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ir/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ir/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{761FAD04-DFD1-9141-8DA9-274935B640F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D24B9B51-4F56-EA4C-B257-E285EBC50ED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2554" uniqueCount="148">
   <si>
     <t>BankCode</t>
   </si>
@@ -836,8 +837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G318"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7682,4 +7683,6856 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63453910-B85E-0C47-9F13-F861B0F9618A}">
+  <dimension ref="A1:G318"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="G4" s="1">
+        <v>38.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="G5" s="1">
+        <v>35.590000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>33.549999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="G7" s="1">
+        <v>37.15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="G8" s="1">
+        <v>34.159999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1.17</v>
+      </c>
+      <c r="G9" s="1">
+        <v>33.07</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="1">
+        <v>5.15</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1.19</v>
+      </c>
+      <c r="G10" s="1">
+        <v>31.81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="1">
+        <v>5.54</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1.23</v>
+      </c>
+      <c r="G11" s="1">
+        <v>30.61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="1">
+        <v>6.18</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1.22</v>
+      </c>
+      <c r="G12" s="1">
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="1">
+        <v>7.03</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="G13" s="1">
+        <v>28.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="1">
+        <v>7.06</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1.05</v>
+      </c>
+      <c r="G14" s="1">
+        <v>28.08</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="1">
+        <v>6.98</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="G15" s="1">
+        <v>28.34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="1">
+        <v>6.94</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="G16" s="1">
+        <v>28.09</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="1">
+        <v>7.43</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="G17" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="1">
+        <v>7.7</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.87</v>
+      </c>
+      <c r="G18" s="1">
+        <v>26.73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G19" s="1">
+        <v>35.92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1.31</v>
+      </c>
+      <c r="G20" s="1">
+        <v>30.71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1.24</v>
+      </c>
+      <c r="G21" s="1">
+        <v>32.9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1.32</v>
+      </c>
+      <c r="G22" s="1">
+        <v>31.47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1.47</v>
+      </c>
+      <c r="G23" s="1">
+        <v>29.79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="1">
+        <v>5.41</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1.47</v>
+      </c>
+      <c r="G24" s="1">
+        <v>29.57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="1">
+        <v>6.01</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1.47</v>
+      </c>
+      <c r="G25" s="1">
+        <v>29.65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="1">
+        <v>6.51</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1.42</v>
+      </c>
+      <c r="G26" s="1">
+        <v>28.85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="1">
+        <v>7.28</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="G27" s="1">
+        <v>26.98</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" s="1">
+        <v>7.03</v>
+      </c>
+      <c r="F28" s="1">
+        <v>1.18</v>
+      </c>
+      <c r="G28" s="1">
+        <v>27.49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29" s="1">
+        <v>7.52</v>
+      </c>
+      <c r="F29" s="1">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="G29" s="1">
+        <v>26.95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30" s="1">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="G30" s="1">
+        <v>26.42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" s="1">
+        <v>8.2799999999999994</v>
+      </c>
+      <c r="F31" s="1">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="G31" s="1">
+        <v>26.53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" t="s">
+        <v>32</v>
+      </c>
+      <c r="E32" s="1">
+        <v>7.99</v>
+      </c>
+      <c r="F32" s="1">
+        <v>1.02</v>
+      </c>
+      <c r="G32" s="1">
+        <v>25.12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D33" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0.71</v>
+      </c>
+      <c r="G33" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" t="s">
+        <v>19</v>
+      </c>
+      <c r="F34" s="1">
+        <v>1.01</v>
+      </c>
+      <c r="G34" s="1">
+        <v>34.479999999999997</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" t="s">
+        <v>38</v>
+      </c>
+      <c r="D35" t="s">
+        <v>20</v>
+      </c>
+      <c r="F35" s="1">
+        <v>1.21</v>
+      </c>
+      <c r="G35" s="1">
+        <v>29.54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" t="s">
+        <v>38</v>
+      </c>
+      <c r="D36" t="s">
+        <v>21</v>
+      </c>
+      <c r="F36" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="G36" s="1">
+        <v>32.869999999999997</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" t="s">
+        <v>38</v>
+      </c>
+      <c r="D37" t="s">
+        <v>22</v>
+      </c>
+      <c r="F37" s="1">
+        <v>1.32</v>
+      </c>
+      <c r="G37" s="1">
+        <v>30.61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" t="s">
+        <v>38</v>
+      </c>
+      <c r="D38" t="s">
+        <v>23</v>
+      </c>
+      <c r="F38" s="1">
+        <v>1.44</v>
+      </c>
+      <c r="G38" s="1">
+        <v>29.38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" t="s">
+        <v>38</v>
+      </c>
+      <c r="D39" t="s">
+        <v>24</v>
+      </c>
+      <c r="E39" s="1">
+        <v>5.14</v>
+      </c>
+      <c r="F39" s="1">
+        <v>1.45</v>
+      </c>
+      <c r="G39" s="1">
+        <v>28.56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>36</v>
+      </c>
+      <c r="B40" t="s">
+        <v>37</v>
+      </c>
+      <c r="C40" t="s">
+        <v>38</v>
+      </c>
+      <c r="D40" t="s">
+        <v>25</v>
+      </c>
+      <c r="E40" s="1">
+        <v>5.9</v>
+      </c>
+      <c r="F40" s="1">
+        <v>1.44</v>
+      </c>
+      <c r="G40" s="1">
+        <v>28.03</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41" t="s">
+        <v>37</v>
+      </c>
+      <c r="C41" t="s">
+        <v>38</v>
+      </c>
+      <c r="D41" t="s">
+        <v>26</v>
+      </c>
+      <c r="E41" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="F41" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="G41" s="1">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>36</v>
+      </c>
+      <c r="B42" t="s">
+        <v>37</v>
+      </c>
+      <c r="C42" t="s">
+        <v>38</v>
+      </c>
+      <c r="D42" t="s">
+        <v>27</v>
+      </c>
+      <c r="E42" s="1">
+        <v>7.48</v>
+      </c>
+      <c r="F42" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="G42" s="1">
+        <v>25.49</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>36</v>
+      </c>
+      <c r="B43" t="s">
+        <v>37</v>
+      </c>
+      <c r="C43" t="s">
+        <v>38</v>
+      </c>
+      <c r="D43" t="s">
+        <v>28</v>
+      </c>
+      <c r="E43" s="1">
+        <v>7.55</v>
+      </c>
+      <c r="F43" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="G43" s="1">
+        <v>25.91</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>36</v>
+      </c>
+      <c r="B44" t="s">
+        <v>37</v>
+      </c>
+      <c r="C44" t="s">
+        <v>38</v>
+      </c>
+      <c r="D44" t="s">
+        <v>29</v>
+      </c>
+      <c r="E44" s="1">
+        <v>7.51</v>
+      </c>
+      <c r="F44" s="1">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="G44" s="1">
+        <v>24.46</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>36</v>
+      </c>
+      <c r="B45" t="s">
+        <v>37</v>
+      </c>
+      <c r="C45" t="s">
+        <v>38</v>
+      </c>
+      <c r="D45" t="s">
+        <v>30</v>
+      </c>
+      <c r="E45" s="1">
+        <v>7.79</v>
+      </c>
+      <c r="F45" s="1">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="G45" s="1">
+        <v>23.91</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>36</v>
+      </c>
+      <c r="B46" t="s">
+        <v>37</v>
+      </c>
+      <c r="C46" t="s">
+        <v>38</v>
+      </c>
+      <c r="D46" t="s">
+        <v>31</v>
+      </c>
+      <c r="E46" s="1">
+        <v>8.31</v>
+      </c>
+      <c r="F46" s="1">
+        <v>1.08</v>
+      </c>
+      <c r="G46" s="1">
+        <v>23.28</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>36</v>
+      </c>
+      <c r="B47" t="s">
+        <v>37</v>
+      </c>
+      <c r="C47" t="s">
+        <v>38</v>
+      </c>
+      <c r="D47" t="s">
+        <v>32</v>
+      </c>
+      <c r="E47" s="1">
+        <v>8.14</v>
+      </c>
+      <c r="F47" s="1">
+        <v>1</v>
+      </c>
+      <c r="G47" s="1">
+        <v>22.3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>39</v>
+      </c>
+      <c r="B48" t="s">
+        <v>40</v>
+      </c>
+      <c r="C48" t="s">
+        <v>41</v>
+      </c>
+      <c r="D48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F48" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="G48" s="1">
+        <v>38.590000000000003</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>39</v>
+      </c>
+      <c r="B49" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" t="s">
+        <v>41</v>
+      </c>
+      <c r="D49" t="s">
+        <v>23</v>
+      </c>
+      <c r="F49" s="1">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="G49" s="1">
+        <v>35.89</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>39</v>
+      </c>
+      <c r="B50" t="s">
+        <v>40</v>
+      </c>
+      <c r="C50" t="s">
+        <v>41</v>
+      </c>
+      <c r="D50" t="s">
+        <v>24</v>
+      </c>
+      <c r="E50" s="1">
+        <v>4.74</v>
+      </c>
+      <c r="F50" s="1">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="G50" s="1">
+        <v>36.76</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>39</v>
+      </c>
+      <c r="B51" t="s">
+        <v>40</v>
+      </c>
+      <c r="C51" t="s">
+        <v>41</v>
+      </c>
+      <c r="D51" t="s">
+        <v>25</v>
+      </c>
+      <c r="E51" s="1">
+        <v>5.21</v>
+      </c>
+      <c r="F51" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="G51" s="1">
+        <v>36.299999999999997</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>39</v>
+      </c>
+      <c r="B52" t="s">
+        <v>40</v>
+      </c>
+      <c r="C52" t="s">
+        <v>41</v>
+      </c>
+      <c r="D52" t="s">
+        <v>26</v>
+      </c>
+      <c r="E52" s="1">
+        <v>5.73</v>
+      </c>
+      <c r="F52" s="1">
+        <v>1.18</v>
+      </c>
+      <c r="G52" s="1">
+        <v>34.56</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>39</v>
+      </c>
+      <c r="B53" t="s">
+        <v>40</v>
+      </c>
+      <c r="C53" t="s">
+        <v>41</v>
+      </c>
+      <c r="D53" t="s">
+        <v>27</v>
+      </c>
+      <c r="E53" s="1">
+        <v>6.33</v>
+      </c>
+      <c r="F53" s="1">
+        <v>1.07</v>
+      </c>
+      <c r="G53" s="1">
+        <v>33.28</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>39</v>
+      </c>
+      <c r="B54" t="s">
+        <v>40</v>
+      </c>
+      <c r="C54" t="s">
+        <v>41</v>
+      </c>
+      <c r="D54" t="s">
+        <v>28</v>
+      </c>
+      <c r="E54" s="1">
+        <v>6.27</v>
+      </c>
+      <c r="F54" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="G54" s="1">
+        <v>34.590000000000003</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>39</v>
+      </c>
+      <c r="B55" t="s">
+        <v>40</v>
+      </c>
+      <c r="C55" t="s">
+        <v>41</v>
+      </c>
+      <c r="D55" t="s">
+        <v>29</v>
+      </c>
+      <c r="E55" s="1">
+        <v>6.23</v>
+      </c>
+      <c r="F55" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="G55" s="1">
+        <v>32.96</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>39</v>
+      </c>
+      <c r="B56" t="s">
+        <v>40</v>
+      </c>
+      <c r="C56" t="s">
+        <v>41</v>
+      </c>
+      <c r="D56" t="s">
+        <v>30</v>
+      </c>
+      <c r="E56" s="1">
+        <v>6.76</v>
+      </c>
+      <c r="F56" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="G56" s="1">
+        <v>31.27</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>39</v>
+      </c>
+      <c r="B57" t="s">
+        <v>40</v>
+      </c>
+      <c r="C57" t="s">
+        <v>41</v>
+      </c>
+      <c r="D57" t="s">
+        <v>31</v>
+      </c>
+      <c r="E57" s="1">
+        <v>7.09</v>
+      </c>
+      <c r="F57" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="G57" s="1">
+        <v>30.49</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>39</v>
+      </c>
+      <c r="B58" t="s">
+        <v>40</v>
+      </c>
+      <c r="C58" t="s">
+        <v>41</v>
+      </c>
+      <c r="D58" t="s">
+        <v>32</v>
+      </c>
+      <c r="E58" s="1">
+        <v>7.42</v>
+      </c>
+      <c r="F58" s="1">
+        <v>0.83</v>
+      </c>
+      <c r="G58" s="1">
+        <v>29.23</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>42</v>
+      </c>
+      <c r="B59" t="s">
+        <v>43</v>
+      </c>
+      <c r="C59" t="s">
+        <v>44</v>
+      </c>
+      <c r="D59" t="s">
+        <v>18</v>
+      </c>
+      <c r="F59" s="1">
+        <v>0.61</v>
+      </c>
+      <c r="G59" s="1">
+        <v>38.6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>42</v>
+      </c>
+      <c r="B60" t="s">
+        <v>43</v>
+      </c>
+      <c r="C60" t="s">
+        <v>44</v>
+      </c>
+      <c r="D60" t="s">
+        <v>19</v>
+      </c>
+      <c r="F60" s="1">
+        <v>1.17</v>
+      </c>
+      <c r="G60" s="1">
+        <v>36.53</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>42</v>
+      </c>
+      <c r="B61" t="s">
+        <v>43</v>
+      </c>
+      <c r="C61" t="s">
+        <v>44</v>
+      </c>
+      <c r="D61" t="s">
+        <v>20</v>
+      </c>
+      <c r="F61" s="1">
+        <v>1.22</v>
+      </c>
+      <c r="G61" s="1">
+        <v>34.9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>42</v>
+      </c>
+      <c r="B62" t="s">
+        <v>43</v>
+      </c>
+      <c r="C62" t="s">
+        <v>44</v>
+      </c>
+      <c r="D62" t="s">
+        <v>21</v>
+      </c>
+      <c r="F62" s="1">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="G62" s="1">
+        <v>36.69</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>42</v>
+      </c>
+      <c r="B63" t="s">
+        <v>43</v>
+      </c>
+      <c r="C63" t="s">
+        <v>44</v>
+      </c>
+      <c r="D63" t="s">
+        <v>22</v>
+      </c>
+      <c r="F63" s="1">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="G63" s="1">
+        <v>32.909999999999997</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>42</v>
+      </c>
+      <c r="B64" t="s">
+        <v>43</v>
+      </c>
+      <c r="C64" t="s">
+        <v>44</v>
+      </c>
+      <c r="D64" t="s">
+        <v>23</v>
+      </c>
+      <c r="F64" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="G64" s="1">
+        <v>31.95</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>42</v>
+      </c>
+      <c r="B65" t="s">
+        <v>43</v>
+      </c>
+      <c r="C65" t="s">
+        <v>44</v>
+      </c>
+      <c r="D65" t="s">
+        <v>24</v>
+      </c>
+      <c r="F65" s="1">
+        <v>1.23</v>
+      </c>
+      <c r="G65" s="1">
+        <v>26.73</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>42</v>
+      </c>
+      <c r="B66" t="s">
+        <v>43</v>
+      </c>
+      <c r="C66" t="s">
+        <v>44</v>
+      </c>
+      <c r="D66" t="s">
+        <v>25</v>
+      </c>
+      <c r="F66" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="G66" s="1">
+        <v>26.71</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>42</v>
+      </c>
+      <c r="B67" t="s">
+        <v>43</v>
+      </c>
+      <c r="C67" t="s">
+        <v>44</v>
+      </c>
+      <c r="D67" t="s">
+        <v>26</v>
+      </c>
+      <c r="E67" s="1">
+        <v>5.08</v>
+      </c>
+      <c r="F67" s="1">
+        <v>1.18</v>
+      </c>
+      <c r="G67" s="1">
+        <v>23.78</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>42</v>
+      </c>
+      <c r="B68" t="s">
+        <v>43</v>
+      </c>
+      <c r="C68" t="s">
+        <v>44</v>
+      </c>
+      <c r="D68" t="s">
+        <v>27</v>
+      </c>
+      <c r="E68" s="1">
+        <v>5.23</v>
+      </c>
+      <c r="F68" s="1">
+        <v>1.04</v>
+      </c>
+      <c r="G68" s="1">
+        <v>21.59</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>42</v>
+      </c>
+      <c r="B69" t="s">
+        <v>43</v>
+      </c>
+      <c r="C69" t="s">
+        <v>44</v>
+      </c>
+      <c r="D69" t="s">
+        <v>28</v>
+      </c>
+      <c r="E69" s="1">
+        <v>5.25</v>
+      </c>
+      <c r="F69" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="G69" s="1">
+        <v>23.39</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>42</v>
+      </c>
+      <c r="B70" t="s">
+        <v>43</v>
+      </c>
+      <c r="C70" t="s">
+        <v>44</v>
+      </c>
+      <c r="D70" t="s">
+        <v>29</v>
+      </c>
+      <c r="E70" s="1">
+        <v>5.89</v>
+      </c>
+      <c r="F70" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="G70" s="1">
+        <v>27.63</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>42</v>
+      </c>
+      <c r="B71" t="s">
+        <v>43</v>
+      </c>
+      <c r="C71" t="s">
+        <v>44</v>
+      </c>
+      <c r="D71" t="s">
+        <v>30</v>
+      </c>
+      <c r="E71" s="1">
+        <v>6.12</v>
+      </c>
+      <c r="F71" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="G71" s="1">
+        <v>26.89</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>42</v>
+      </c>
+      <c r="B72" t="s">
+        <v>43</v>
+      </c>
+      <c r="C72" t="s">
+        <v>44</v>
+      </c>
+      <c r="D72" t="s">
+        <v>31</v>
+      </c>
+      <c r="E72" s="1">
+        <v>6.42</v>
+      </c>
+      <c r="F72" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="G72" s="1">
+        <v>26.03</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>42</v>
+      </c>
+      <c r="B73" t="s">
+        <v>43</v>
+      </c>
+      <c r="C73" t="s">
+        <v>44</v>
+      </c>
+      <c r="D73" t="s">
+        <v>32</v>
+      </c>
+      <c r="E73" s="1">
+        <v>6.58</v>
+      </c>
+      <c r="F73" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="G73" s="1">
+        <v>24.16</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>45</v>
+      </c>
+      <c r="B74" t="s">
+        <v>46</v>
+      </c>
+      <c r="C74" t="s">
+        <v>47</v>
+      </c>
+      <c r="D74" t="s">
+        <v>19</v>
+      </c>
+      <c r="F74" s="1">
+        <v>1.07</v>
+      </c>
+      <c r="G74" s="1">
+        <v>40.26</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>45</v>
+      </c>
+      <c r="B75" t="s">
+        <v>46</v>
+      </c>
+      <c r="C75" t="s">
+        <v>47</v>
+      </c>
+      <c r="D75" t="s">
+        <v>20</v>
+      </c>
+      <c r="F75" s="1">
+        <v>1.19</v>
+      </c>
+      <c r="G75" s="1">
+        <v>39.380000000000003</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>45</v>
+      </c>
+      <c r="B76" t="s">
+        <v>46</v>
+      </c>
+      <c r="C76" t="s">
+        <v>47</v>
+      </c>
+      <c r="D76" t="s">
+        <v>21</v>
+      </c>
+      <c r="F76" s="1">
+        <v>1.01</v>
+      </c>
+      <c r="G76" s="1">
+        <v>38.869999999999997</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>45</v>
+      </c>
+      <c r="B77" t="s">
+        <v>46</v>
+      </c>
+      <c r="C77" t="s">
+        <v>47</v>
+      </c>
+      <c r="D77" t="s">
+        <v>22</v>
+      </c>
+      <c r="F77" s="1">
+        <v>1.08</v>
+      </c>
+      <c r="G77" s="1">
+        <v>31.89</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>45</v>
+      </c>
+      <c r="B78" t="s">
+        <v>46</v>
+      </c>
+      <c r="C78" t="s">
+        <v>47</v>
+      </c>
+      <c r="D78" t="s">
+        <v>23</v>
+      </c>
+      <c r="F78" s="1">
+        <v>1.19</v>
+      </c>
+      <c r="G78" s="1">
+        <v>30.13</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>45</v>
+      </c>
+      <c r="B79" t="s">
+        <v>46</v>
+      </c>
+      <c r="C79" t="s">
+        <v>47</v>
+      </c>
+      <c r="D79" t="s">
+        <v>24</v>
+      </c>
+      <c r="F79" s="1">
+        <v>1.18</v>
+      </c>
+      <c r="G79" s="1">
+        <v>29.71</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>45</v>
+      </c>
+      <c r="B80" t="s">
+        <v>46</v>
+      </c>
+      <c r="C80" t="s">
+        <v>47</v>
+      </c>
+      <c r="D80" t="s">
+        <v>25</v>
+      </c>
+      <c r="F80" s="1">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="G80" s="1">
+        <v>29.35</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>45</v>
+      </c>
+      <c r="B81" t="s">
+        <v>46</v>
+      </c>
+      <c r="C81" t="s">
+        <v>47</v>
+      </c>
+      <c r="D81" t="s">
+        <v>26</v>
+      </c>
+      <c r="E81" s="1">
+        <v>6.1</v>
+      </c>
+      <c r="F81" s="1">
+        <v>1.08</v>
+      </c>
+      <c r="G81" s="1">
+        <v>30.29</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>45</v>
+      </c>
+      <c r="B82" t="s">
+        <v>46</v>
+      </c>
+      <c r="C82" t="s">
+        <v>47</v>
+      </c>
+      <c r="D82" t="s">
+        <v>27</v>
+      </c>
+      <c r="E82" s="1">
+        <v>6.7</v>
+      </c>
+      <c r="F82" s="1">
+        <v>1</v>
+      </c>
+      <c r="G82" s="1">
+        <v>30.36</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>45</v>
+      </c>
+      <c r="B83" t="s">
+        <v>46</v>
+      </c>
+      <c r="C83" t="s">
+        <v>47</v>
+      </c>
+      <c r="D83" t="s">
+        <v>28</v>
+      </c>
+      <c r="E83" s="1">
+        <v>6.86</v>
+      </c>
+      <c r="F83" s="1">
+        <v>0.87</v>
+      </c>
+      <c r="G83" s="1">
+        <v>31.6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>45</v>
+      </c>
+      <c r="B84" t="s">
+        <v>46</v>
+      </c>
+      <c r="C84" t="s">
+        <v>47</v>
+      </c>
+      <c r="D84" t="s">
+        <v>29</v>
+      </c>
+      <c r="E84" s="1">
+        <v>6.88</v>
+      </c>
+      <c r="F84" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="G84" s="1">
+        <v>31.85</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>45</v>
+      </c>
+      <c r="B85" t="s">
+        <v>46</v>
+      </c>
+      <c r="C85" t="s">
+        <v>47</v>
+      </c>
+      <c r="D85" t="s">
+        <v>30</v>
+      </c>
+      <c r="E85" s="1">
+        <v>6.78</v>
+      </c>
+      <c r="F85" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="G85" s="1">
+        <v>31.5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>45</v>
+      </c>
+      <c r="B86" t="s">
+        <v>46</v>
+      </c>
+      <c r="C86" t="s">
+        <v>47</v>
+      </c>
+      <c r="D86" t="s">
+        <v>31</v>
+      </c>
+      <c r="E86" s="1">
+        <v>7.43</v>
+      </c>
+      <c r="F86" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="G86" s="1">
+        <v>30.11</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>45</v>
+      </c>
+      <c r="B87" t="s">
+        <v>46</v>
+      </c>
+      <c r="C87" t="s">
+        <v>47</v>
+      </c>
+      <c r="D87" t="s">
+        <v>32</v>
+      </c>
+      <c r="E87" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="F87" s="1">
+        <v>0.77</v>
+      </c>
+      <c r="G87" s="1">
+        <v>28.29</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>48</v>
+      </c>
+      <c r="B88" t="s">
+        <v>49</v>
+      </c>
+      <c r="C88" t="s">
+        <v>50</v>
+      </c>
+      <c r="D88" t="s">
+        <v>51</v>
+      </c>
+      <c r="F88" s="1">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>48</v>
+      </c>
+      <c r="B89" t="s">
+        <v>49</v>
+      </c>
+      <c r="C89" t="s">
+        <v>50</v>
+      </c>
+      <c r="D89" t="s">
+        <v>52</v>
+      </c>
+      <c r="G89" s="1">
+        <v>39.53</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>48</v>
+      </c>
+      <c r="B90" t="s">
+        <v>49</v>
+      </c>
+      <c r="C90" t="s">
+        <v>50</v>
+      </c>
+      <c r="D90" t="s">
+        <v>18</v>
+      </c>
+      <c r="G90" s="1">
+        <v>40.86</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>48</v>
+      </c>
+      <c r="B91" t="s">
+        <v>49</v>
+      </c>
+      <c r="C91" t="s">
+        <v>50</v>
+      </c>
+      <c r="D91" t="s">
+        <v>19</v>
+      </c>
+      <c r="F91" s="1">
+        <v>0.69</v>
+      </c>
+      <c r="G91" s="1">
+        <v>38.619999999999997</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>48</v>
+      </c>
+      <c r="B92" t="s">
+        <v>49</v>
+      </c>
+      <c r="C92" t="s">
+        <v>50</v>
+      </c>
+      <c r="D92" t="s">
+        <v>20</v>
+      </c>
+      <c r="F92" s="1">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="G92" s="1">
+        <v>36.69</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>48</v>
+      </c>
+      <c r="B93" t="s">
+        <v>49</v>
+      </c>
+      <c r="C93" t="s">
+        <v>50</v>
+      </c>
+      <c r="D93" t="s">
+        <v>21</v>
+      </c>
+      <c r="F93" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="G93" s="1">
+        <v>35.99</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>48</v>
+      </c>
+      <c r="B94" t="s">
+        <v>49</v>
+      </c>
+      <c r="C94" t="s">
+        <v>50</v>
+      </c>
+      <c r="D94" t="s">
+        <v>22</v>
+      </c>
+      <c r="F94" s="1">
+        <v>1.01</v>
+      </c>
+      <c r="G94" s="1">
+        <v>33.06</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>48</v>
+      </c>
+      <c r="B95" t="s">
+        <v>49</v>
+      </c>
+      <c r="C95" t="s">
+        <v>50</v>
+      </c>
+      <c r="D95" t="s">
+        <v>23</v>
+      </c>
+      <c r="F95" s="1">
+        <v>1.02</v>
+      </c>
+      <c r="G95" s="1">
+        <v>28.79</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>48</v>
+      </c>
+      <c r="B96" t="s">
+        <v>49</v>
+      </c>
+      <c r="C96" t="s">
+        <v>50</v>
+      </c>
+      <c r="D96" t="s">
+        <v>24</v>
+      </c>
+      <c r="F96" s="1">
+        <v>1.18</v>
+      </c>
+      <c r="G96" s="1">
+        <v>28.71</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>48</v>
+      </c>
+      <c r="B97" t="s">
+        <v>49</v>
+      </c>
+      <c r="C97" t="s">
+        <v>50</v>
+      </c>
+      <c r="D97" t="s">
+        <v>25</v>
+      </c>
+      <c r="F97" s="1">
+        <v>1.21</v>
+      </c>
+      <c r="G97" s="1">
+        <v>25.83</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>48</v>
+      </c>
+      <c r="B98" t="s">
+        <v>49</v>
+      </c>
+      <c r="C98" t="s">
+        <v>50</v>
+      </c>
+      <c r="D98" t="s">
+        <v>26</v>
+      </c>
+      <c r="F98" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="G98" s="1">
+        <v>23.12</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>48</v>
+      </c>
+      <c r="B99" t="s">
+        <v>49</v>
+      </c>
+      <c r="C99" t="s">
+        <v>50</v>
+      </c>
+      <c r="D99" t="s">
+        <v>27</v>
+      </c>
+      <c r="E99" s="1">
+        <v>5.31</v>
+      </c>
+      <c r="F99" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G99" s="1">
+        <v>21.86</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>48</v>
+      </c>
+      <c r="B100" t="s">
+        <v>49</v>
+      </c>
+      <c r="C100" t="s">
+        <v>50</v>
+      </c>
+      <c r="D100" t="s">
+        <v>28</v>
+      </c>
+      <c r="E100" s="1">
+        <v>5.47</v>
+      </c>
+      <c r="F100" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="G100" s="1">
+        <v>23.16</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>48</v>
+      </c>
+      <c r="B101" t="s">
+        <v>49</v>
+      </c>
+      <c r="C101" t="s">
+        <v>50</v>
+      </c>
+      <c r="D101" t="s">
+        <v>29</v>
+      </c>
+      <c r="E101" s="1">
+        <v>6.1</v>
+      </c>
+      <c r="F101" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="G101" s="1">
+        <v>24.34</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>48</v>
+      </c>
+      <c r="B102" t="s">
+        <v>49</v>
+      </c>
+      <c r="C102" t="s">
+        <v>50</v>
+      </c>
+      <c r="D102" t="s">
+        <v>30</v>
+      </c>
+      <c r="E102" s="1">
+        <v>6.68</v>
+      </c>
+      <c r="F102" s="1">
+        <v>0.91</v>
+      </c>
+      <c r="G102" s="1">
+        <v>25.12</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>48</v>
+      </c>
+      <c r="B103" t="s">
+        <v>49</v>
+      </c>
+      <c r="C103" t="s">
+        <v>50</v>
+      </c>
+      <c r="D103" t="s">
+        <v>31</v>
+      </c>
+      <c r="E103" s="1">
+        <v>6.83</v>
+      </c>
+      <c r="F103" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="G103" s="1">
+        <v>22.58</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>48</v>
+      </c>
+      <c r="B104" t="s">
+        <v>49</v>
+      </c>
+      <c r="C104" t="s">
+        <v>50</v>
+      </c>
+      <c r="D104" t="s">
+        <v>32</v>
+      </c>
+      <c r="E104" s="1">
+        <v>6.69</v>
+      </c>
+      <c r="F104" s="1">
+        <v>0.79</v>
+      </c>
+      <c r="G104" s="1">
+        <v>23.78</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>53</v>
+      </c>
+      <c r="B105" t="s">
+        <v>54</v>
+      </c>
+      <c r="C105" t="s">
+        <v>55</v>
+      </c>
+      <c r="D105" t="s">
+        <v>52</v>
+      </c>
+      <c r="G105" s="1">
+        <v>47.64</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>53</v>
+      </c>
+      <c r="B106" t="s">
+        <v>54</v>
+      </c>
+      <c r="C106" t="s">
+        <v>55</v>
+      </c>
+      <c r="D106" t="s">
+        <v>18</v>
+      </c>
+      <c r="G106" s="1">
+        <v>41.41</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>53</v>
+      </c>
+      <c r="B107" t="s">
+        <v>54</v>
+      </c>
+      <c r="C107" t="s">
+        <v>55</v>
+      </c>
+      <c r="D107" t="s">
+        <v>19</v>
+      </c>
+      <c r="F107" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="G107" s="1">
+        <v>38.93</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>53</v>
+      </c>
+      <c r="B108" t="s">
+        <v>54</v>
+      </c>
+      <c r="C108" t="s">
+        <v>55</v>
+      </c>
+      <c r="D108" t="s">
+        <v>20</v>
+      </c>
+      <c r="F108" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="G108" s="1">
+        <v>35.99</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>53</v>
+      </c>
+      <c r="B109" t="s">
+        <v>54</v>
+      </c>
+      <c r="C109" t="s">
+        <v>55</v>
+      </c>
+      <c r="D109" t="s">
+        <v>21</v>
+      </c>
+      <c r="F109" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="G109" s="1">
+        <v>41.76</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>53</v>
+      </c>
+      <c r="B110" t="s">
+        <v>54</v>
+      </c>
+      <c r="C110" t="s">
+        <v>55</v>
+      </c>
+      <c r="D110" t="s">
+        <v>22</v>
+      </c>
+      <c r="F110" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="G110" s="1">
+        <v>40.840000000000003</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>53</v>
+      </c>
+      <c r="B111" t="s">
+        <v>54</v>
+      </c>
+      <c r="C111" t="s">
+        <v>55</v>
+      </c>
+      <c r="D111" t="s">
+        <v>23</v>
+      </c>
+      <c r="F111" s="1">
+        <v>1.04</v>
+      </c>
+      <c r="G111" s="1">
+        <v>39.99</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>53</v>
+      </c>
+      <c r="B112" t="s">
+        <v>56</v>
+      </c>
+      <c r="C112" t="s">
+        <v>55</v>
+      </c>
+      <c r="D112" t="s">
+        <v>24</v>
+      </c>
+      <c r="F112" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="G112" s="1">
+        <v>39.409999999999997</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>53</v>
+      </c>
+      <c r="B113" t="s">
+        <v>56</v>
+      </c>
+      <c r="C113" t="s">
+        <v>55</v>
+      </c>
+      <c r="D113" t="s">
+        <v>25</v>
+      </c>
+      <c r="F113" s="1">
+        <v>0.87</v>
+      </c>
+      <c r="G113" s="1">
+        <v>40.770000000000003</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>53</v>
+      </c>
+      <c r="B114" t="s">
+        <v>56</v>
+      </c>
+      <c r="C114" t="s">
+        <v>55</v>
+      </c>
+      <c r="D114" t="s">
+        <v>26</v>
+      </c>
+      <c r="E114" s="1">
+        <v>4.25</v>
+      </c>
+      <c r="F114" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="G114" s="1">
+        <v>36.33</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>53</v>
+      </c>
+      <c r="B115" t="s">
+        <v>56</v>
+      </c>
+      <c r="C115" t="s">
+        <v>55</v>
+      </c>
+      <c r="D115" t="s">
+        <v>27</v>
+      </c>
+      <c r="E115" s="1">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="F115" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="G115" s="1">
+        <v>31.31</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>53</v>
+      </c>
+      <c r="B116" t="s">
+        <v>56</v>
+      </c>
+      <c r="C116" t="s">
+        <v>55</v>
+      </c>
+      <c r="D116" t="s">
+        <v>28</v>
+      </c>
+      <c r="E116" s="1">
+        <v>5.49</v>
+      </c>
+      <c r="F116" s="1">
+        <v>0.77</v>
+      </c>
+      <c r="G116" s="1">
+        <v>25.97</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>53</v>
+      </c>
+      <c r="B117" t="s">
+        <v>56</v>
+      </c>
+      <c r="C117" t="s">
+        <v>55</v>
+      </c>
+      <c r="D117" t="s">
+        <v>29</v>
+      </c>
+      <c r="E117" s="1">
+        <v>5.69</v>
+      </c>
+      <c r="F117" s="1">
+        <v>0.71</v>
+      </c>
+      <c r="G117" s="1">
+        <v>29.89</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>53</v>
+      </c>
+      <c r="B118" t="s">
+        <v>56</v>
+      </c>
+      <c r="C118" t="s">
+        <v>55</v>
+      </c>
+      <c r="D118" t="s">
+        <v>30</v>
+      </c>
+      <c r="E118" s="1">
+        <v>5.75</v>
+      </c>
+      <c r="F118" s="1">
+        <v>0.73</v>
+      </c>
+      <c r="G118" s="1">
+        <v>30.32</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>53</v>
+      </c>
+      <c r="B119" t="s">
+        <v>56</v>
+      </c>
+      <c r="C119" t="s">
+        <v>55</v>
+      </c>
+      <c r="D119" t="s">
+        <v>31</v>
+      </c>
+      <c r="E119" s="1">
+        <v>6.44</v>
+      </c>
+      <c r="F119" s="1">
+        <v>0.72</v>
+      </c>
+      <c r="G119" s="1">
+        <v>29.61</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>53</v>
+      </c>
+      <c r="B120" t="s">
+        <v>56</v>
+      </c>
+      <c r="C120" t="s">
+        <v>55</v>
+      </c>
+      <c r="D120" t="s">
+        <v>32</v>
+      </c>
+      <c r="E120" s="1">
+        <v>6.48</v>
+      </c>
+      <c r="F120" s="1">
+        <v>0.69</v>
+      </c>
+      <c r="G120" s="1">
+        <v>29.11</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>57</v>
+      </c>
+      <c r="B121" t="s">
+        <v>58</v>
+      </c>
+      <c r="C121" t="s">
+        <v>59</v>
+      </c>
+      <c r="D121" t="s">
+        <v>52</v>
+      </c>
+      <c r="F121" s="1">
+        <v>0.53</v>
+      </c>
+      <c r="G121" s="1">
+        <v>46.74</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>57</v>
+      </c>
+      <c r="B122" t="s">
+        <v>58</v>
+      </c>
+      <c r="C122" t="s">
+        <v>59</v>
+      </c>
+      <c r="D122" t="s">
+        <v>18</v>
+      </c>
+      <c r="F122" s="1">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="G122" s="1">
+        <v>47.71</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>57</v>
+      </c>
+      <c r="B123" t="s">
+        <v>58</v>
+      </c>
+      <c r="C123" t="s">
+        <v>59</v>
+      </c>
+      <c r="D123" t="s">
+        <v>19</v>
+      </c>
+      <c r="F123" s="1">
+        <v>0.68</v>
+      </c>
+      <c r="G123" s="1">
+        <v>46.26</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>57</v>
+      </c>
+      <c r="B124" t="s">
+        <v>58</v>
+      </c>
+      <c r="C124" t="s">
+        <v>59</v>
+      </c>
+      <c r="D124" t="s">
+        <v>20</v>
+      </c>
+      <c r="F124" s="1">
+        <v>0.79</v>
+      </c>
+      <c r="G124" s="1">
+        <v>42.55</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>57</v>
+      </c>
+      <c r="B125" t="s">
+        <v>58</v>
+      </c>
+      <c r="C125" t="s">
+        <v>59</v>
+      </c>
+      <c r="D125" t="s">
+        <v>21</v>
+      </c>
+      <c r="F125" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="G125" s="1">
+        <v>42.17</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>57</v>
+      </c>
+      <c r="B126" t="s">
+        <v>58</v>
+      </c>
+      <c r="C126" t="s">
+        <v>59</v>
+      </c>
+      <c r="D126" t="s">
+        <v>22</v>
+      </c>
+      <c r="F126" s="1">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="G126" s="1">
+        <v>39.479999999999997</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>57</v>
+      </c>
+      <c r="B127" t="s">
+        <v>58</v>
+      </c>
+      <c r="C127" t="s">
+        <v>59</v>
+      </c>
+      <c r="D127" t="s">
+        <v>23</v>
+      </c>
+      <c r="F127" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="G127" s="1">
+        <v>35.61</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>57</v>
+      </c>
+      <c r="B128" t="s">
+        <v>58</v>
+      </c>
+      <c r="C128" t="s">
+        <v>59</v>
+      </c>
+      <c r="D128" t="s">
+        <v>24</v>
+      </c>
+      <c r="F128" s="1">
+        <v>1.41</v>
+      </c>
+      <c r="G128" s="1">
+        <v>34.01</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>57</v>
+      </c>
+      <c r="B129" t="s">
+        <v>58</v>
+      </c>
+      <c r="C129" t="s">
+        <v>59</v>
+      </c>
+      <c r="D129" t="s">
+        <v>25</v>
+      </c>
+      <c r="F129" s="1">
+        <v>1.34</v>
+      </c>
+      <c r="G129" s="1">
+        <v>32.75</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>57</v>
+      </c>
+      <c r="B130" t="s">
+        <v>58</v>
+      </c>
+      <c r="C130" t="s">
+        <v>59</v>
+      </c>
+      <c r="D130" t="s">
+        <v>26</v>
+      </c>
+      <c r="F130" s="1">
+        <v>1.26</v>
+      </c>
+      <c r="G130" s="1">
+        <v>33.270000000000003</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>57</v>
+      </c>
+      <c r="B131" t="s">
+        <v>58</v>
+      </c>
+      <c r="C131" t="s">
+        <v>59</v>
+      </c>
+      <c r="D131" t="s">
+        <v>27</v>
+      </c>
+      <c r="E131" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="F131" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G131" s="1">
+        <v>31.22</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>57</v>
+      </c>
+      <c r="B132" t="s">
+        <v>58</v>
+      </c>
+      <c r="C132" t="s">
+        <v>59</v>
+      </c>
+      <c r="D132" t="s">
+        <v>28</v>
+      </c>
+      <c r="E132" s="1">
+        <v>5.19</v>
+      </c>
+      <c r="F132" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="G132" s="1">
+        <v>30.98</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>57</v>
+      </c>
+      <c r="B133" t="s">
+        <v>58</v>
+      </c>
+      <c r="C133" t="s">
+        <v>59</v>
+      </c>
+      <c r="D133" t="s">
+        <v>29</v>
+      </c>
+      <c r="E133" s="1">
+        <v>5.81</v>
+      </c>
+      <c r="F133" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="G133" s="1">
+        <v>31.72</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>57</v>
+      </c>
+      <c r="B134" t="s">
+        <v>58</v>
+      </c>
+      <c r="C134" t="s">
+        <v>59</v>
+      </c>
+      <c r="D134" t="s">
+        <v>30</v>
+      </c>
+      <c r="E134" s="1">
+        <v>6.04</v>
+      </c>
+      <c r="F134" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="G134" s="1">
+        <v>30.07</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>57</v>
+      </c>
+      <c r="B135" t="s">
+        <v>58</v>
+      </c>
+      <c r="C135" t="s">
+        <v>59</v>
+      </c>
+      <c r="D135" t="s">
+        <v>31</v>
+      </c>
+      <c r="E135" s="1">
+        <v>6.87</v>
+      </c>
+      <c r="F135" s="1">
+        <v>0.87</v>
+      </c>
+      <c r="G135" s="1">
+        <v>12.38</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>57</v>
+      </c>
+      <c r="B136" t="s">
+        <v>58</v>
+      </c>
+      <c r="C136" t="s">
+        <v>59</v>
+      </c>
+      <c r="D136" t="s">
+        <v>32</v>
+      </c>
+      <c r="E136" s="1">
+        <v>6.93</v>
+      </c>
+      <c r="F136" s="1">
+        <v>0.51</v>
+      </c>
+      <c r="G136" s="1">
+        <v>26.19</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>60</v>
+      </c>
+      <c r="B137" t="s">
+        <v>61</v>
+      </c>
+      <c r="C137" t="s">
+        <v>62</v>
+      </c>
+      <c r="D137" t="s">
+        <v>52</v>
+      </c>
+      <c r="F137" s="1">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="G137" s="1">
+        <v>41.25</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>60</v>
+      </c>
+      <c r="B138" t="s">
+        <v>61</v>
+      </c>
+      <c r="C138" t="s">
+        <v>62</v>
+      </c>
+      <c r="D138" t="s">
+        <v>18</v>
+      </c>
+      <c r="F138" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="G138" s="1">
+        <v>38.42</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>60</v>
+      </c>
+      <c r="B139" t="s">
+        <v>61</v>
+      </c>
+      <c r="C139" t="s">
+        <v>62</v>
+      </c>
+      <c r="D139" t="s">
+        <v>19</v>
+      </c>
+      <c r="F139" s="1">
+        <v>1.36</v>
+      </c>
+      <c r="G139" s="1">
+        <v>35.049999999999997</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>60</v>
+      </c>
+      <c r="B140" t="s">
+        <v>61</v>
+      </c>
+      <c r="C140" t="s">
+        <v>62</v>
+      </c>
+      <c r="D140" t="s">
+        <v>20</v>
+      </c>
+      <c r="F140" s="1">
+        <v>1.46</v>
+      </c>
+      <c r="G140" s="1">
+        <v>36.78</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>60</v>
+      </c>
+      <c r="B141" t="s">
+        <v>61</v>
+      </c>
+      <c r="C141" t="s">
+        <v>62</v>
+      </c>
+      <c r="D141" t="s">
+        <v>21</v>
+      </c>
+      <c r="F141" s="1">
+        <v>1</v>
+      </c>
+      <c r="G141" s="1">
+        <v>44.86</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>60</v>
+      </c>
+      <c r="B142" t="s">
+        <v>61</v>
+      </c>
+      <c r="C142" t="s">
+        <v>62</v>
+      </c>
+      <c r="D142" t="s">
+        <v>22</v>
+      </c>
+      <c r="F142" s="1">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G142" s="1">
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>60</v>
+      </c>
+      <c r="B143" t="s">
+        <v>61</v>
+      </c>
+      <c r="C143" t="s">
+        <v>62</v>
+      </c>
+      <c r="D143" t="s">
+        <v>23</v>
+      </c>
+      <c r="F143" s="1">
+        <v>1.39</v>
+      </c>
+      <c r="G143" s="1">
+        <v>36.19</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>60</v>
+      </c>
+      <c r="B144" t="s">
+        <v>61</v>
+      </c>
+      <c r="C144" t="s">
+        <v>62</v>
+      </c>
+      <c r="D144" t="s">
+        <v>24</v>
+      </c>
+      <c r="F144" s="1">
+        <v>1.46</v>
+      </c>
+      <c r="G144" s="1">
+        <v>35.979999999999997</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>60</v>
+      </c>
+      <c r="B145" t="s">
+        <v>61</v>
+      </c>
+      <c r="C145" t="s">
+        <v>62</v>
+      </c>
+      <c r="D145" t="s">
+        <v>25</v>
+      </c>
+      <c r="F145" s="1">
+        <v>1.39</v>
+      </c>
+      <c r="G145" s="1">
+        <v>34.36</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>60</v>
+      </c>
+      <c r="B146" t="s">
+        <v>61</v>
+      </c>
+      <c r="C146" t="s">
+        <v>62</v>
+      </c>
+      <c r="D146" t="s">
+        <v>26</v>
+      </c>
+      <c r="E146" s="1">
+        <v>4.96</v>
+      </c>
+      <c r="F146" s="1">
+        <v>1.28</v>
+      </c>
+      <c r="G146" s="1">
+        <v>30.54</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>60</v>
+      </c>
+      <c r="B147" t="s">
+        <v>61</v>
+      </c>
+      <c r="C147" t="s">
+        <v>62</v>
+      </c>
+      <c r="D147" t="s">
+        <v>27</v>
+      </c>
+      <c r="E147" s="1">
+        <v>5.54</v>
+      </c>
+      <c r="F147" s="1">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="G147" s="1">
+        <v>27.67</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>60</v>
+      </c>
+      <c r="B148" t="s">
+        <v>61</v>
+      </c>
+      <c r="C148" t="s">
+        <v>62</v>
+      </c>
+      <c r="D148" t="s">
+        <v>28</v>
+      </c>
+      <c r="E148" s="1">
+        <v>5.75</v>
+      </c>
+      <c r="F148" s="1">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="G148" s="1">
+        <v>28.01</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>60</v>
+      </c>
+      <c r="B149" t="s">
+        <v>61</v>
+      </c>
+      <c r="C149" t="s">
+        <v>62</v>
+      </c>
+      <c r="D149" t="s">
+        <v>29</v>
+      </c>
+      <c r="E149" s="1">
+        <v>6.29</v>
+      </c>
+      <c r="G149" s="1">
+        <v>30.23</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>60</v>
+      </c>
+      <c r="B150" t="s">
+        <v>61</v>
+      </c>
+      <c r="C150" t="s">
+        <v>62</v>
+      </c>
+      <c r="D150" t="s">
+        <v>30</v>
+      </c>
+      <c r="E150" s="1">
+        <v>6.61</v>
+      </c>
+      <c r="G150" s="1">
+        <v>30.23</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>60</v>
+      </c>
+      <c r="B151" t="s">
+        <v>61</v>
+      </c>
+      <c r="C151" t="s">
+        <v>62</v>
+      </c>
+      <c r="D151" t="s">
+        <v>31</v>
+      </c>
+      <c r="E151" s="1">
+        <v>6.79</v>
+      </c>
+      <c r="G151" s="1">
+        <v>32.090000000000003</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>60</v>
+      </c>
+      <c r="B152" t="s">
+        <v>61</v>
+      </c>
+      <c r="C152" t="s">
+        <v>62</v>
+      </c>
+      <c r="D152" t="s">
+        <v>32</v>
+      </c>
+      <c r="E152" s="1">
+        <v>7.39</v>
+      </c>
+      <c r="G152" s="1">
+        <v>33.299999999999997</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>63</v>
+      </c>
+      <c r="B153" t="s">
+        <v>64</v>
+      </c>
+      <c r="C153" t="s">
+        <v>65</v>
+      </c>
+      <c r="D153" t="s">
+        <v>19</v>
+      </c>
+      <c r="F153" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="G153" s="1">
+        <v>34.89</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>63</v>
+      </c>
+      <c r="B154" t="s">
+        <v>64</v>
+      </c>
+      <c r="C154" t="s">
+        <v>65</v>
+      </c>
+      <c r="D154" t="s">
+        <v>20</v>
+      </c>
+      <c r="F154" s="1">
+        <v>1.21</v>
+      </c>
+      <c r="G154" s="1">
+        <v>32.979999999999997</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>63</v>
+      </c>
+      <c r="B155" t="s">
+        <v>64</v>
+      </c>
+      <c r="C155" t="s">
+        <v>65</v>
+      </c>
+      <c r="D155" t="s">
+        <v>21</v>
+      </c>
+      <c r="F155" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="G155" s="1">
+        <v>39.950000000000003</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>63</v>
+      </c>
+      <c r="B156" t="s">
+        <v>64</v>
+      </c>
+      <c r="C156" t="s">
+        <v>65</v>
+      </c>
+      <c r="D156" t="s">
+        <v>22</v>
+      </c>
+      <c r="F156" s="1">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="G156" s="1">
+        <v>33.82</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>63</v>
+      </c>
+      <c r="B157" t="s">
+        <v>64</v>
+      </c>
+      <c r="C157" t="s">
+        <v>65</v>
+      </c>
+      <c r="D157" t="s">
+        <v>23</v>
+      </c>
+      <c r="F157" s="1">
+        <v>1.27</v>
+      </c>
+      <c r="G157" s="1">
+        <v>29.86</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>63</v>
+      </c>
+      <c r="B158" t="s">
+        <v>64</v>
+      </c>
+      <c r="C158" t="s">
+        <v>65</v>
+      </c>
+      <c r="D158" t="s">
+        <v>24</v>
+      </c>
+      <c r="F158" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G158" s="1">
+        <v>31.51</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>63</v>
+      </c>
+      <c r="B159" t="s">
+        <v>64</v>
+      </c>
+      <c r="C159" t="s">
+        <v>65</v>
+      </c>
+      <c r="D159" t="s">
+        <v>25</v>
+      </c>
+      <c r="F159" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="G159" s="1">
+        <v>31.41</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>63</v>
+      </c>
+      <c r="B160" t="s">
+        <v>64</v>
+      </c>
+      <c r="C160" t="s">
+        <v>65</v>
+      </c>
+      <c r="D160" t="s">
+        <v>26</v>
+      </c>
+      <c r="F160" s="1">
+        <v>1.07</v>
+      </c>
+      <c r="G160" s="1">
+        <v>30.32</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>63</v>
+      </c>
+      <c r="B161" t="s">
+        <v>64</v>
+      </c>
+      <c r="C161" t="s">
+        <v>65</v>
+      </c>
+      <c r="D161" t="s">
+        <v>27</v>
+      </c>
+      <c r="E161" s="1">
+        <v>5.26</v>
+      </c>
+      <c r="F161" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="G161" s="1">
+        <v>27.85</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>63</v>
+      </c>
+      <c r="B162" t="s">
+        <v>64</v>
+      </c>
+      <c r="C162" t="s">
+        <v>65</v>
+      </c>
+      <c r="D162" t="s">
+        <v>28</v>
+      </c>
+      <c r="E162" s="1">
+        <v>5.47</v>
+      </c>
+      <c r="F162" s="1">
+        <v>0.76</v>
+      </c>
+      <c r="G162" s="1">
+        <v>27.56</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>63</v>
+      </c>
+      <c r="B163" t="s">
+        <v>64</v>
+      </c>
+      <c r="C163" t="s">
+        <v>65</v>
+      </c>
+      <c r="D163" t="s">
+        <v>29</v>
+      </c>
+      <c r="E163" s="1">
+        <v>6.18</v>
+      </c>
+      <c r="G163" s="1">
+        <v>29.92</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>63</v>
+      </c>
+      <c r="B164" t="s">
+        <v>64</v>
+      </c>
+      <c r="C164" t="s">
+        <v>65</v>
+      </c>
+      <c r="D164" t="s">
+        <v>30</v>
+      </c>
+      <c r="E164" s="1">
+        <v>6.37</v>
+      </c>
+      <c r="G164" s="1">
+        <v>30.57</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>63</v>
+      </c>
+      <c r="B165" t="s">
+        <v>64</v>
+      </c>
+      <c r="C165" t="s">
+        <v>65</v>
+      </c>
+      <c r="D165" t="s">
+        <v>31</v>
+      </c>
+      <c r="E165" s="1">
+        <v>6.71</v>
+      </c>
+      <c r="G165" s="1">
+        <v>27.7</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>63</v>
+      </c>
+      <c r="B166" t="s">
+        <v>64</v>
+      </c>
+      <c r="C166" t="s">
+        <v>65</v>
+      </c>
+      <c r="D166" t="s">
+        <v>32</v>
+      </c>
+      <c r="E166" s="1">
+        <v>6.4</v>
+      </c>
+      <c r="G166" s="1">
+        <v>26.65</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>66</v>
+      </c>
+      <c r="B167" t="s">
+        <v>67</v>
+      </c>
+      <c r="C167" t="s">
+        <v>68</v>
+      </c>
+      <c r="D167" t="s">
+        <v>22</v>
+      </c>
+      <c r="F167" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="G167" s="1">
+        <v>35.44</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>66</v>
+      </c>
+      <c r="B168" t="s">
+        <v>67</v>
+      </c>
+      <c r="C168" t="s">
+        <v>68</v>
+      </c>
+      <c r="D168" t="s">
+        <v>23</v>
+      </c>
+      <c r="F168" s="1">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="G168" s="1">
+        <v>31.95</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>66</v>
+      </c>
+      <c r="B169" t="s">
+        <v>67</v>
+      </c>
+      <c r="C169" t="s">
+        <v>68</v>
+      </c>
+      <c r="D169" t="s">
+        <v>24</v>
+      </c>
+      <c r="F169" s="1">
+        <v>1.18</v>
+      </c>
+      <c r="G169" s="1">
+        <v>29.97</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>66</v>
+      </c>
+      <c r="B170" t="s">
+        <v>67</v>
+      </c>
+      <c r="C170" t="s">
+        <v>68</v>
+      </c>
+      <c r="D170" t="s">
+        <v>25</v>
+      </c>
+      <c r="F170" s="1">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="G170" s="1">
+        <v>31.58</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>66</v>
+      </c>
+      <c r="B171" t="s">
+        <v>67</v>
+      </c>
+      <c r="C171" t="s">
+        <v>68</v>
+      </c>
+      <c r="D171" t="s">
+        <v>26</v>
+      </c>
+      <c r="F171" s="1">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="G171" s="1">
+        <v>29.82</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>66</v>
+      </c>
+      <c r="B172" t="s">
+        <v>67</v>
+      </c>
+      <c r="C172" t="s">
+        <v>68</v>
+      </c>
+      <c r="D172" t="s">
+        <v>27</v>
+      </c>
+      <c r="E172" s="1">
+        <v>5.95</v>
+      </c>
+      <c r="F172" s="1">
+        <v>1</v>
+      </c>
+      <c r="G172" s="1">
+        <v>26.91</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>66</v>
+      </c>
+      <c r="B173" t="s">
+        <v>67</v>
+      </c>
+      <c r="C173" t="s">
+        <v>68</v>
+      </c>
+      <c r="D173" t="s">
+        <v>28</v>
+      </c>
+      <c r="E173" s="1">
+        <v>5.44</v>
+      </c>
+      <c r="F173" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="G173" s="1">
+        <v>28.77</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>66</v>
+      </c>
+      <c r="B174" t="s">
+        <v>67</v>
+      </c>
+      <c r="C174" t="s">
+        <v>68</v>
+      </c>
+      <c r="D174" t="s">
+        <v>29</v>
+      </c>
+      <c r="E174" s="1">
+        <v>6.45</v>
+      </c>
+      <c r="G174" s="1">
+        <v>31.92</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>66</v>
+      </c>
+      <c r="B175" t="s">
+        <v>67</v>
+      </c>
+      <c r="C175" t="s">
+        <v>68</v>
+      </c>
+      <c r="D175" t="s">
+        <v>30</v>
+      </c>
+      <c r="E175" s="1">
+        <v>6.29</v>
+      </c>
+      <c r="G175" s="1">
+        <v>28.79</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>66</v>
+      </c>
+      <c r="B176" t="s">
+        <v>67</v>
+      </c>
+      <c r="C176" t="s">
+        <v>68</v>
+      </c>
+      <c r="D176" t="s">
+        <v>31</v>
+      </c>
+      <c r="E176" s="1">
+        <v>6.83</v>
+      </c>
+      <c r="G176" s="1">
+        <v>27.27</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>66</v>
+      </c>
+      <c r="B177" t="s">
+        <v>67</v>
+      </c>
+      <c r="C177" t="s">
+        <v>68</v>
+      </c>
+      <c r="D177" t="s">
+        <v>32</v>
+      </c>
+      <c r="E177" s="1">
+        <v>7.03</v>
+      </c>
+      <c r="G177" s="1">
+        <v>26.38</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>69</v>
+      </c>
+      <c r="B178" t="s">
+        <v>70</v>
+      </c>
+      <c r="C178" t="s">
+        <v>71</v>
+      </c>
+      <c r="D178" t="s">
+        <v>52</v>
+      </c>
+      <c r="G178" s="1">
+        <v>45.72</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>69</v>
+      </c>
+      <c r="B179" t="s">
+        <v>70</v>
+      </c>
+      <c r="C179" t="s">
+        <v>71</v>
+      </c>
+      <c r="D179" t="s">
+        <v>18</v>
+      </c>
+      <c r="F179" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="G179" s="1">
+        <v>42.74</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>69</v>
+      </c>
+      <c r="B180" t="s">
+        <v>70</v>
+      </c>
+      <c r="C180" t="s">
+        <v>71</v>
+      </c>
+      <c r="D180" t="s">
+        <v>19</v>
+      </c>
+      <c r="F180" s="1">
+        <v>0.41</v>
+      </c>
+      <c r="G180" s="1">
+        <v>40.39</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>69</v>
+      </c>
+      <c r="B181" t="s">
+        <v>70</v>
+      </c>
+      <c r="C181" t="s">
+        <v>71</v>
+      </c>
+      <c r="D181" t="s">
+        <v>20</v>
+      </c>
+      <c r="F181" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="G181" s="1">
+        <v>41.41</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>69</v>
+      </c>
+      <c r="B182" t="s">
+        <v>70</v>
+      </c>
+      <c r="C182" t="s">
+        <v>71</v>
+      </c>
+      <c r="D182" t="s">
+        <v>21</v>
+      </c>
+      <c r="F182" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="G182" s="1">
+        <v>44.88</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>69</v>
+      </c>
+      <c r="B183" t="s">
+        <v>70</v>
+      </c>
+      <c r="C183" t="s">
+        <v>71</v>
+      </c>
+      <c r="D183" t="s">
+        <v>22</v>
+      </c>
+      <c r="F183" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="G183" s="1">
+        <v>43.41</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>69</v>
+      </c>
+      <c r="B184" t="s">
+        <v>70</v>
+      </c>
+      <c r="C184" t="s">
+        <v>71</v>
+      </c>
+      <c r="D184" t="s">
+        <v>23</v>
+      </c>
+      <c r="F184" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="G184" s="1">
+        <v>41.89</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>69</v>
+      </c>
+      <c r="B185" t="s">
+        <v>70</v>
+      </c>
+      <c r="C185" t="s">
+        <v>71</v>
+      </c>
+      <c r="D185" t="s">
+        <v>24</v>
+      </c>
+      <c r="F185" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="G185" s="1">
+        <v>39.950000000000003</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>69</v>
+      </c>
+      <c r="B186" t="s">
+        <v>70</v>
+      </c>
+      <c r="C186" t="s">
+        <v>71</v>
+      </c>
+      <c r="D186" t="s">
+        <v>25</v>
+      </c>
+      <c r="F186" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="G186" s="1">
+        <v>38.93</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>69</v>
+      </c>
+      <c r="B187" t="s">
+        <v>70</v>
+      </c>
+      <c r="C187" t="s">
+        <v>71</v>
+      </c>
+      <c r="D187" t="s">
+        <v>26</v>
+      </c>
+      <c r="F187" s="1">
+        <v>1.02</v>
+      </c>
+      <c r="G187" s="1">
+        <v>37.57</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>69</v>
+      </c>
+      <c r="B188" t="s">
+        <v>70</v>
+      </c>
+      <c r="C188" t="s">
+        <v>71</v>
+      </c>
+      <c r="D188" t="s">
+        <v>27</v>
+      </c>
+      <c r="E188" s="1">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="F188" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="G188" s="1">
+        <v>35.01</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>69</v>
+      </c>
+      <c r="B189" t="s">
+        <v>70</v>
+      </c>
+      <c r="C189" t="s">
+        <v>71</v>
+      </c>
+      <c r="D189" t="s">
+        <v>28</v>
+      </c>
+      <c r="E189" s="1">
+        <v>5.61</v>
+      </c>
+      <c r="F189" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="G189" s="1">
+        <v>34.5</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>69</v>
+      </c>
+      <c r="B190" t="s">
+        <v>70</v>
+      </c>
+      <c r="C190" t="s">
+        <v>71</v>
+      </c>
+      <c r="D190" t="s">
+        <v>29</v>
+      </c>
+      <c r="E190" s="1">
+        <v>5.85</v>
+      </c>
+      <c r="F190" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="G190" s="1">
+        <v>32.96</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>69</v>
+      </c>
+      <c r="B191" t="s">
+        <v>70</v>
+      </c>
+      <c r="C191" t="s">
+        <v>71</v>
+      </c>
+      <c r="D191" t="s">
+        <v>30</v>
+      </c>
+      <c r="E191" s="1">
+        <v>7.06</v>
+      </c>
+      <c r="F191" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="G191" s="1">
+        <v>32.58</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>69</v>
+      </c>
+      <c r="B192" t="s">
+        <v>70</v>
+      </c>
+      <c r="C192" t="s">
+        <v>71</v>
+      </c>
+      <c r="D192" t="s">
+        <v>31</v>
+      </c>
+      <c r="E192" s="1">
+        <v>7.68</v>
+      </c>
+      <c r="F192" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="G192" s="1">
+        <v>30.59</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>69</v>
+      </c>
+      <c r="B193" t="s">
+        <v>70</v>
+      </c>
+      <c r="C193" t="s">
+        <v>71</v>
+      </c>
+      <c r="D193" t="s">
+        <v>32</v>
+      </c>
+      <c r="E193" s="1">
+        <v>7.25</v>
+      </c>
+      <c r="F193" s="1">
+        <v>0.67</v>
+      </c>
+      <c r="G193" s="1">
+        <v>27.93</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>72</v>
+      </c>
+      <c r="B194" t="s">
+        <v>73</v>
+      </c>
+      <c r="C194" t="s">
+        <v>74</v>
+      </c>
+      <c r="D194" t="s">
+        <v>32</v>
+      </c>
+      <c r="E194" s="1">
+        <v>6.84</v>
+      </c>
+      <c r="F194" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="G194" s="1">
+        <v>20.64</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>75</v>
+      </c>
+      <c r="B195" t="s">
+        <v>76</v>
+      </c>
+      <c r="C195" t="s">
+        <v>77</v>
+      </c>
+      <c r="D195" t="s">
+        <v>19</v>
+      </c>
+      <c r="F195" s="1">
+        <v>1.07</v>
+      </c>
+      <c r="G195" s="1">
+        <v>25.03</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>75</v>
+      </c>
+      <c r="B196" t="s">
+        <v>76</v>
+      </c>
+      <c r="C196" t="s">
+        <v>77</v>
+      </c>
+      <c r="D196" t="s">
+        <v>20</v>
+      </c>
+      <c r="F196" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="G196" s="1">
+        <v>23.4</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>75</v>
+      </c>
+      <c r="B197" t="s">
+        <v>76</v>
+      </c>
+      <c r="C197" t="s">
+        <v>77</v>
+      </c>
+      <c r="D197" t="s">
+        <v>21</v>
+      </c>
+      <c r="F197" s="1">
+        <v>1.19</v>
+      </c>
+      <c r="G197" s="1">
+        <v>26.27</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>75</v>
+      </c>
+      <c r="B198" t="s">
+        <v>76</v>
+      </c>
+      <c r="C198" t="s">
+        <v>77</v>
+      </c>
+      <c r="D198" t="s">
+        <v>22</v>
+      </c>
+      <c r="F198" s="1">
+        <v>1.07</v>
+      </c>
+      <c r="G198" s="1">
+        <v>30.3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>75</v>
+      </c>
+      <c r="B199" t="s">
+        <v>76</v>
+      </c>
+      <c r="C199" t="s">
+        <v>77</v>
+      </c>
+      <c r="D199" t="s">
+        <v>23</v>
+      </c>
+      <c r="F199" s="1">
+        <v>1.06</v>
+      </c>
+      <c r="G199" s="1">
+        <v>26.35</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>75</v>
+      </c>
+      <c r="B200" t="s">
+        <v>76</v>
+      </c>
+      <c r="C200" t="s">
+        <v>77</v>
+      </c>
+      <c r="D200" t="s">
+        <v>24</v>
+      </c>
+      <c r="F200" s="1">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="G200" s="1">
+        <v>25.78</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>75</v>
+      </c>
+      <c r="B201" t="s">
+        <v>76</v>
+      </c>
+      <c r="C201" t="s">
+        <v>77</v>
+      </c>
+      <c r="D201" t="s">
+        <v>25</v>
+      </c>
+      <c r="F201" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G201" s="1">
+        <v>25.51</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>75</v>
+      </c>
+      <c r="B202" t="s">
+        <v>76</v>
+      </c>
+      <c r="C202" t="s">
+        <v>77</v>
+      </c>
+      <c r="D202" t="s">
+        <v>26</v>
+      </c>
+      <c r="F202" s="1">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="G202" s="1">
+        <v>24.65</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>75</v>
+      </c>
+      <c r="B203" t="s">
+        <v>76</v>
+      </c>
+      <c r="C203" t="s">
+        <v>77</v>
+      </c>
+      <c r="D203" t="s">
+        <v>27</v>
+      </c>
+      <c r="E203" s="1">
+        <v>5.33</v>
+      </c>
+      <c r="F203" s="1">
+        <v>1</v>
+      </c>
+      <c r="G203" s="1">
+        <v>24.99</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>75</v>
+      </c>
+      <c r="B204" t="s">
+        <v>76</v>
+      </c>
+      <c r="C204" t="s">
+        <v>77</v>
+      </c>
+      <c r="D204" t="s">
+        <v>28</v>
+      </c>
+      <c r="E204" s="1">
+        <v>5.75</v>
+      </c>
+      <c r="F204" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="G204" s="1">
+        <v>25.81</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>75</v>
+      </c>
+      <c r="B205" t="s">
+        <v>76</v>
+      </c>
+      <c r="C205" t="s">
+        <v>77</v>
+      </c>
+      <c r="D205" t="s">
+        <v>29</v>
+      </c>
+      <c r="E205" s="1">
+        <v>6.58</v>
+      </c>
+      <c r="F205" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="G205" s="1">
+        <v>26.85</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>75</v>
+      </c>
+      <c r="B206" t="s">
+        <v>76</v>
+      </c>
+      <c r="C206" t="s">
+        <v>77</v>
+      </c>
+      <c r="D206" t="s">
+        <v>30</v>
+      </c>
+      <c r="E206" s="1">
+        <v>6.14</v>
+      </c>
+      <c r="F206" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="G206" s="1">
+        <v>25.19</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>75</v>
+      </c>
+      <c r="B207" t="s">
+        <v>76</v>
+      </c>
+      <c r="C207" t="s">
+        <v>77</v>
+      </c>
+      <c r="D207" t="s">
+        <v>31</v>
+      </c>
+      <c r="E207" s="1">
+        <v>6.68</v>
+      </c>
+      <c r="F207" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="G207" s="1">
+        <v>23.23</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>75</v>
+      </c>
+      <c r="B208" t="s">
+        <v>76</v>
+      </c>
+      <c r="C208" t="s">
+        <v>77</v>
+      </c>
+      <c r="D208" t="s">
+        <v>32</v>
+      </c>
+      <c r="E208" s="1">
+        <v>6.57</v>
+      </c>
+      <c r="F208" s="1">
+        <v>0.77</v>
+      </c>
+      <c r="G208" s="1">
+        <v>22.07</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>78</v>
+      </c>
+      <c r="B209" t="s">
+        <v>79</v>
+      </c>
+      <c r="C209" t="s">
+        <v>80</v>
+      </c>
+      <c r="D209" t="s">
+        <v>27</v>
+      </c>
+      <c r="E209" s="1">
+        <v>5.61</v>
+      </c>
+      <c r="F209" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="G209" s="1">
+        <v>22.99</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>78</v>
+      </c>
+      <c r="B210" t="s">
+        <v>79</v>
+      </c>
+      <c r="C210" t="s">
+        <v>80</v>
+      </c>
+      <c r="D210" t="s">
+        <v>28</v>
+      </c>
+      <c r="E210" s="1">
+        <v>6.09</v>
+      </c>
+      <c r="F210" s="1">
+        <v>0.89</v>
+      </c>
+      <c r="G210" s="1">
+        <v>22.89</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>78</v>
+      </c>
+      <c r="B211" t="s">
+        <v>79</v>
+      </c>
+      <c r="C211" t="s">
+        <v>80</v>
+      </c>
+      <c r="D211" t="s">
+        <v>29</v>
+      </c>
+      <c r="E211" s="1">
+        <v>7.41</v>
+      </c>
+      <c r="F211" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="G211" s="1">
+        <v>24.47</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>78</v>
+      </c>
+      <c r="B212" t="s">
+        <v>79</v>
+      </c>
+      <c r="C212" t="s">
+        <v>80</v>
+      </c>
+      <c r="D212" t="s">
+        <v>30</v>
+      </c>
+      <c r="E212" s="1">
+        <v>7.31</v>
+      </c>
+      <c r="F212" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="G212" s="1">
+        <v>20.52</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>78</v>
+      </c>
+      <c r="B213" t="s">
+        <v>79</v>
+      </c>
+      <c r="C213" t="s">
+        <v>80</v>
+      </c>
+      <c r="D213" t="s">
+        <v>31</v>
+      </c>
+      <c r="E213" s="1">
+        <v>6.92</v>
+      </c>
+      <c r="F213" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="G213" s="1">
+        <v>19.98</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>78</v>
+      </c>
+      <c r="B214" t="s">
+        <v>79</v>
+      </c>
+      <c r="C214" t="s">
+        <v>80</v>
+      </c>
+      <c r="D214" t="s">
+        <v>32</v>
+      </c>
+      <c r="E214" s="1">
+        <v>6.84</v>
+      </c>
+      <c r="F214" s="1">
+        <v>0.89</v>
+      </c>
+      <c r="G214" s="1">
+        <v>18.93</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>81</v>
+      </c>
+      <c r="B215" t="s">
+        <v>82</v>
+      </c>
+      <c r="C215" t="s">
+        <v>83</v>
+      </c>
+      <c r="D215" t="s">
+        <v>31</v>
+      </c>
+      <c r="E215" s="1">
+        <v>5.95</v>
+      </c>
+      <c r="F215" s="1">
+        <v>0.76</v>
+      </c>
+      <c r="G215" s="1">
+        <v>26.24</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>81</v>
+      </c>
+      <c r="B216" t="s">
+        <v>82</v>
+      </c>
+      <c r="C216" t="s">
+        <v>83</v>
+      </c>
+      <c r="D216" t="s">
+        <v>32</v>
+      </c>
+      <c r="E216" s="1">
+        <v>5.33</v>
+      </c>
+      <c r="F216" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="G216" s="1">
+        <v>25.96</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>84</v>
+      </c>
+      <c r="B217" t="s">
+        <v>85</v>
+      </c>
+      <c r="C217" t="s">
+        <v>86</v>
+      </c>
+      <c r="D217" t="s">
+        <v>19</v>
+      </c>
+      <c r="F217" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="G217" s="1">
+        <v>30.25</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>84</v>
+      </c>
+      <c r="B218" t="s">
+        <v>85</v>
+      </c>
+      <c r="C218" t="s">
+        <v>86</v>
+      </c>
+      <c r="D218" t="s">
+        <v>20</v>
+      </c>
+      <c r="F218" s="1">
+        <v>1.55</v>
+      </c>
+      <c r="G218" s="1">
+        <v>25.39</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>84</v>
+      </c>
+      <c r="B219" t="s">
+        <v>85</v>
+      </c>
+      <c r="C219" t="s">
+        <v>86</v>
+      </c>
+      <c r="D219" t="s">
+        <v>21</v>
+      </c>
+      <c r="F219" s="1">
+        <v>1.27</v>
+      </c>
+      <c r="G219" s="1">
+        <v>31.29</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>84</v>
+      </c>
+      <c r="B220" t="s">
+        <v>85</v>
+      </c>
+      <c r="C220" t="s">
+        <v>86</v>
+      </c>
+      <c r="D220" t="s">
+        <v>22</v>
+      </c>
+      <c r="F220" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="G220" s="1">
+        <v>30.46</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>84</v>
+      </c>
+      <c r="B221" t="s">
+        <v>85</v>
+      </c>
+      <c r="C221" t="s">
+        <v>86</v>
+      </c>
+      <c r="D221" t="s">
+        <v>23</v>
+      </c>
+      <c r="F221" s="1">
+        <v>1.29</v>
+      </c>
+      <c r="G221" s="1">
+        <v>30.97</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>84</v>
+      </c>
+      <c r="B222" t="s">
+        <v>85</v>
+      </c>
+      <c r="C222" t="s">
+        <v>86</v>
+      </c>
+      <c r="D222" t="s">
+        <v>24</v>
+      </c>
+      <c r="F222" s="1">
+        <v>1.28</v>
+      </c>
+      <c r="G222" s="1">
+        <v>29.86</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>84</v>
+      </c>
+      <c r="B223" t="s">
+        <v>85</v>
+      </c>
+      <c r="C223" t="s">
+        <v>86</v>
+      </c>
+      <c r="D223" t="s">
+        <v>25</v>
+      </c>
+      <c r="F223" s="1">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="G223" s="1">
+        <v>31.03</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>84</v>
+      </c>
+      <c r="B224" t="s">
+        <v>85</v>
+      </c>
+      <c r="C224" t="s">
+        <v>86</v>
+      </c>
+      <c r="D224" t="s">
+        <v>26</v>
+      </c>
+      <c r="F224" s="1">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="G224" s="1">
+        <v>27.91</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>84</v>
+      </c>
+      <c r="B225" t="s">
+        <v>85</v>
+      </c>
+      <c r="C225" t="s">
+        <v>86</v>
+      </c>
+      <c r="D225" t="s">
+        <v>27</v>
+      </c>
+      <c r="E225" s="1">
+        <v>5.59</v>
+      </c>
+      <c r="F225" s="1">
+        <v>1.02</v>
+      </c>
+      <c r="G225" s="1">
+        <v>24.1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>84</v>
+      </c>
+      <c r="B226" t="s">
+        <v>85</v>
+      </c>
+      <c r="C226" t="s">
+        <v>86</v>
+      </c>
+      <c r="D226" t="s">
+        <v>28</v>
+      </c>
+      <c r="E226" s="1">
+        <v>5.25</v>
+      </c>
+      <c r="F226" s="1">
+        <v>0.88</v>
+      </c>
+      <c r="G226" s="1">
+        <v>24.8</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>84</v>
+      </c>
+      <c r="B227" t="s">
+        <v>85</v>
+      </c>
+      <c r="C227" t="s">
+        <v>86</v>
+      </c>
+      <c r="D227" t="s">
+        <v>29</v>
+      </c>
+      <c r="E227" s="1">
+        <v>5.21</v>
+      </c>
+      <c r="F227" s="1">
+        <v>0.88</v>
+      </c>
+      <c r="G227" s="1">
+        <v>29.2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>84</v>
+      </c>
+      <c r="B228" t="s">
+        <v>85</v>
+      </c>
+      <c r="C228" t="s">
+        <v>86</v>
+      </c>
+      <c r="D228" t="s">
+        <v>30</v>
+      </c>
+      <c r="E228" s="1">
+        <v>5.42</v>
+      </c>
+      <c r="F228" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="G228" s="1">
+        <v>28.61</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>84</v>
+      </c>
+      <c r="B229" t="s">
+        <v>85</v>
+      </c>
+      <c r="C229" t="s">
+        <v>86</v>
+      </c>
+      <c r="D229" t="s">
+        <v>31</v>
+      </c>
+      <c r="E229" s="1">
+        <v>5.64</v>
+      </c>
+      <c r="F229" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="G229" s="1">
+        <v>27.39</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>84</v>
+      </c>
+      <c r="B230" t="s">
+        <v>85</v>
+      </c>
+      <c r="C230" t="s">
+        <v>86</v>
+      </c>
+      <c r="D230" t="s">
+        <v>32</v>
+      </c>
+      <c r="E230" s="1">
+        <v>6.23</v>
+      </c>
+      <c r="F230" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="G230" s="1">
+        <v>28.46</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>87</v>
+      </c>
+      <c r="B231" t="s">
+        <v>88</v>
+      </c>
+      <c r="C231" t="s">
+        <v>89</v>
+      </c>
+      <c r="D231" t="s">
+        <v>29</v>
+      </c>
+      <c r="E231" s="1">
+        <v>5.61</v>
+      </c>
+      <c r="F231" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="G231" s="1">
+        <v>28.27</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>87</v>
+      </c>
+      <c r="B232" t="s">
+        <v>88</v>
+      </c>
+      <c r="C232" t="s">
+        <v>89</v>
+      </c>
+      <c r="D232" t="s">
+        <v>30</v>
+      </c>
+      <c r="E232" s="1">
+        <v>6.24</v>
+      </c>
+      <c r="F232" s="1">
+        <v>1</v>
+      </c>
+      <c r="G232" s="1">
+        <v>25.77</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>87</v>
+      </c>
+      <c r="B233" t="s">
+        <v>88</v>
+      </c>
+      <c r="C233" t="s">
+        <v>89</v>
+      </c>
+      <c r="D233" t="s">
+        <v>31</v>
+      </c>
+      <c r="E233" s="1">
+        <v>6.26</v>
+      </c>
+      <c r="F233" s="1">
+        <v>1.06</v>
+      </c>
+      <c r="G233" s="1">
+        <v>26.52</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>87</v>
+      </c>
+      <c r="B234" t="s">
+        <v>88</v>
+      </c>
+      <c r="C234" t="s">
+        <v>89</v>
+      </c>
+      <c r="D234" t="s">
+        <v>32</v>
+      </c>
+      <c r="E234" s="1">
+        <v>6.89</v>
+      </c>
+      <c r="F234" s="1">
+        <v>1</v>
+      </c>
+      <c r="G234" s="1">
+        <v>23.87</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>90</v>
+      </c>
+      <c r="B235" t="s">
+        <v>91</v>
+      </c>
+      <c r="C235" t="s">
+        <v>92</v>
+      </c>
+      <c r="D235" t="s">
+        <v>30</v>
+      </c>
+      <c r="E235" s="1">
+        <v>7.92</v>
+      </c>
+      <c r="F235" s="1">
+        <v>0.74</v>
+      </c>
+      <c r="G235" s="1">
+        <v>27.97</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>90</v>
+      </c>
+      <c r="B236" t="s">
+        <v>91</v>
+      </c>
+      <c r="C236" t="s">
+        <v>92</v>
+      </c>
+      <c r="D236" t="s">
+        <v>31</v>
+      </c>
+      <c r="E236" s="1">
+        <v>8.2100000000000009</v>
+      </c>
+      <c r="F236" s="1">
+        <v>1.03</v>
+      </c>
+      <c r="G236" s="1">
+        <v>25.68</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>90</v>
+      </c>
+      <c r="B237" t="s">
+        <v>91</v>
+      </c>
+      <c r="C237" t="s">
+        <v>92</v>
+      </c>
+      <c r="D237" t="s">
+        <v>32</v>
+      </c>
+      <c r="E237" s="1">
+        <v>7.72</v>
+      </c>
+      <c r="F237" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="G237" s="1">
+        <v>25.33</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>93</v>
+      </c>
+      <c r="B238" t="s">
+        <v>94</v>
+      </c>
+      <c r="C238" t="s">
+        <v>95</v>
+      </c>
+      <c r="D238" t="s">
+        <v>31</v>
+      </c>
+      <c r="E238" s="1">
+        <v>8.4499999999999993</v>
+      </c>
+      <c r="G238" s="1">
+        <v>28.54</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>93</v>
+      </c>
+      <c r="B239" t="s">
+        <v>94</v>
+      </c>
+      <c r="C239" t="s">
+        <v>95</v>
+      </c>
+      <c r="D239" t="s">
+        <v>32</v>
+      </c>
+      <c r="E239" s="1">
+        <v>8.08</v>
+      </c>
+      <c r="F239" s="1">
+        <v>0.79</v>
+      </c>
+      <c r="G239" s="1">
+        <v>27.09</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>96</v>
+      </c>
+      <c r="B240" t="s">
+        <v>97</v>
+      </c>
+      <c r="C240" t="s">
+        <v>98</v>
+      </c>
+      <c r="D240" t="s">
+        <v>19</v>
+      </c>
+      <c r="F240" s="1">
+        <v>1.44</v>
+      </c>
+      <c r="G240" s="1">
+        <v>36.479999999999997</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>96</v>
+      </c>
+      <c r="B241" t="s">
+        <v>97</v>
+      </c>
+      <c r="C241" t="s">
+        <v>98</v>
+      </c>
+      <c r="D241" t="s">
+        <v>20</v>
+      </c>
+      <c r="F241" s="1">
+        <v>1.49</v>
+      </c>
+      <c r="G241" s="1">
+        <v>40.229999999999997</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>96</v>
+      </c>
+      <c r="B242" t="s">
+        <v>97</v>
+      </c>
+      <c r="C242" t="s">
+        <v>98</v>
+      </c>
+      <c r="D242" t="s">
+        <v>21</v>
+      </c>
+      <c r="F242" s="1">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="G242" s="1">
+        <v>41.37</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>96</v>
+      </c>
+      <c r="B243" t="s">
+        <v>97</v>
+      </c>
+      <c r="C243" t="s">
+        <v>98</v>
+      </c>
+      <c r="D243" t="s">
+        <v>22</v>
+      </c>
+      <c r="F243" s="1">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="G243" s="1">
+        <v>38.14</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>96</v>
+      </c>
+      <c r="B244" t="s">
+        <v>97</v>
+      </c>
+      <c r="C244" t="s">
+        <v>98</v>
+      </c>
+      <c r="D244" t="s">
+        <v>23</v>
+      </c>
+      <c r="F244" s="1">
+        <v>1.24</v>
+      </c>
+      <c r="G244" s="1">
+        <v>36.380000000000003</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>96</v>
+      </c>
+      <c r="B245" t="s">
+        <v>97</v>
+      </c>
+      <c r="C245" t="s">
+        <v>98</v>
+      </c>
+      <c r="D245" t="s">
+        <v>24</v>
+      </c>
+      <c r="F245" s="1">
+        <v>1.28</v>
+      </c>
+      <c r="G245" s="1">
+        <v>34.130000000000003</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>96</v>
+      </c>
+      <c r="B246" t="s">
+        <v>97</v>
+      </c>
+      <c r="C246" t="s">
+        <v>98</v>
+      </c>
+      <c r="D246" t="s">
+        <v>25</v>
+      </c>
+      <c r="F246" s="1">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G246" s="1">
+        <v>34.86</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>96</v>
+      </c>
+      <c r="B247" t="s">
+        <v>97</v>
+      </c>
+      <c r="C247" t="s">
+        <v>98</v>
+      </c>
+      <c r="D247" t="s">
+        <v>26</v>
+      </c>
+      <c r="E247" s="1">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="F247" s="1">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="G247" s="1">
+        <v>32.07</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>96</v>
+      </c>
+      <c r="B248" t="s">
+        <v>97</v>
+      </c>
+      <c r="C248" t="s">
+        <v>98</v>
+      </c>
+      <c r="D248" t="s">
+        <v>27</v>
+      </c>
+      <c r="E248" s="1">
+        <v>5.4</v>
+      </c>
+      <c r="F248" s="1">
+        <v>1.03</v>
+      </c>
+      <c r="G248" s="1">
+        <v>34.03</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>96</v>
+      </c>
+      <c r="B249" t="s">
+        <v>97</v>
+      </c>
+      <c r="C249" t="s">
+        <v>98</v>
+      </c>
+      <c r="D249" t="s">
+        <v>28</v>
+      </c>
+      <c r="E249" s="1">
+        <v>5.08</v>
+      </c>
+      <c r="F249" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="G249" s="1">
+        <v>34.26</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>96</v>
+      </c>
+      <c r="B250" t="s">
+        <v>97</v>
+      </c>
+      <c r="C250" t="s">
+        <v>98</v>
+      </c>
+      <c r="D250" t="s">
+        <v>29</v>
+      </c>
+      <c r="E250" s="1">
+        <v>4.84</v>
+      </c>
+      <c r="F250" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="G250" s="1">
+        <v>34.630000000000003</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
+        <v>96</v>
+      </c>
+      <c r="B251" t="s">
+        <v>97</v>
+      </c>
+      <c r="C251" t="s">
+        <v>98</v>
+      </c>
+      <c r="D251" t="s">
+        <v>30</v>
+      </c>
+      <c r="E251" s="1">
+        <v>6.18</v>
+      </c>
+      <c r="F251" s="1">
+        <v>1.04</v>
+      </c>
+      <c r="G251" s="1">
+        <v>34.44</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>96</v>
+      </c>
+      <c r="B252" t="s">
+        <v>97</v>
+      </c>
+      <c r="C252" t="s">
+        <v>98</v>
+      </c>
+      <c r="D252" t="s">
+        <v>31</v>
+      </c>
+      <c r="E252" s="1">
+        <v>6.48</v>
+      </c>
+      <c r="F252" s="1">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="G252" s="1">
+        <v>34.32</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
+        <v>96</v>
+      </c>
+      <c r="B253" t="s">
+        <v>97</v>
+      </c>
+      <c r="C253" t="s">
+        <v>98</v>
+      </c>
+      <c r="D253" t="s">
+        <v>32</v>
+      </c>
+      <c r="E253" s="1">
+        <v>6.26</v>
+      </c>
+      <c r="F253" s="1">
+        <v>1.02</v>
+      </c>
+      <c r="G253" s="1">
+        <v>37.96</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
+        <v>99</v>
+      </c>
+      <c r="B254" t="s">
+        <v>100</v>
+      </c>
+      <c r="C254" t="s">
+        <v>101</v>
+      </c>
+      <c r="D254" t="s">
+        <v>31</v>
+      </c>
+      <c r="E254" s="1">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="F254" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="G254" s="1">
+        <v>56.57</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
+        <v>99</v>
+      </c>
+      <c r="B255" t="s">
+        <v>100</v>
+      </c>
+      <c r="C255" t="s">
+        <v>101</v>
+      </c>
+      <c r="D255" t="s">
+        <v>32</v>
+      </c>
+      <c r="E255" s="1">
+        <v>5.68</v>
+      </c>
+      <c r="F255" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="G255" s="1">
+        <v>57.88</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
+        <v>102</v>
+      </c>
+      <c r="B256" t="s">
+        <v>103</v>
+      </c>
+      <c r="C256" t="s">
+        <v>104</v>
+      </c>
+      <c r="D256" t="s">
+        <v>28</v>
+      </c>
+      <c r="E256" s="1">
+        <v>6.93</v>
+      </c>
+      <c r="F256" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="G256" s="1">
+        <v>37.25</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
+        <v>102</v>
+      </c>
+      <c r="B257" t="s">
+        <v>103</v>
+      </c>
+      <c r="C257" t="s">
+        <v>104</v>
+      </c>
+      <c r="D257" t="s">
+        <v>29</v>
+      </c>
+      <c r="E257" s="1">
+        <v>7.15</v>
+      </c>
+      <c r="F257" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="G257" s="1">
+        <v>36.33</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A258" t="s">
+        <v>102</v>
+      </c>
+      <c r="B258" t="s">
+        <v>103</v>
+      </c>
+      <c r="C258" t="s">
+        <v>104</v>
+      </c>
+      <c r="D258" t="s">
+        <v>30</v>
+      </c>
+      <c r="E258" s="1">
+        <v>7.49</v>
+      </c>
+      <c r="F258" s="1">
+        <v>0.76</v>
+      </c>
+      <c r="G258" s="1">
+        <v>35.43</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A259" t="s">
+        <v>102</v>
+      </c>
+      <c r="B259" t="s">
+        <v>103</v>
+      </c>
+      <c r="C259" t="s">
+        <v>104</v>
+      </c>
+      <c r="D259" t="s">
+        <v>31</v>
+      </c>
+      <c r="E259" s="1">
+        <v>6.94</v>
+      </c>
+      <c r="F259" s="1">
+        <v>0.79</v>
+      </c>
+      <c r="G259" s="1">
+        <v>31.15</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A260" t="s">
+        <v>102</v>
+      </c>
+      <c r="B260" t="s">
+        <v>103</v>
+      </c>
+      <c r="C260" t="s">
+        <v>104</v>
+      </c>
+      <c r="D260" t="s">
+        <v>32</v>
+      </c>
+      <c r="E260" s="1">
+        <v>6.28</v>
+      </c>
+      <c r="F260" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="G260" s="1">
+        <v>31.27</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A261" t="s">
+        <v>105</v>
+      </c>
+      <c r="B261" t="s">
+        <v>106</v>
+      </c>
+      <c r="C261" t="s">
+        <v>107</v>
+      </c>
+      <c r="D261" t="s">
+        <v>28</v>
+      </c>
+      <c r="E261" s="1">
+        <v>6.72</v>
+      </c>
+      <c r="F261" s="1">
+        <v>0.74</v>
+      </c>
+      <c r="G261" s="1">
+        <v>32.450000000000003</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A262" t="s">
+        <v>105</v>
+      </c>
+      <c r="B262" t="s">
+        <v>106</v>
+      </c>
+      <c r="C262" t="s">
+        <v>107</v>
+      </c>
+      <c r="D262" t="s">
+        <v>29</v>
+      </c>
+      <c r="E262" s="1">
+        <v>6.36</v>
+      </c>
+      <c r="G262" s="1">
+        <v>30.03</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A263" t="s">
+        <v>105</v>
+      </c>
+      <c r="B263" t="s">
+        <v>106</v>
+      </c>
+      <c r="C263" t="s">
+        <v>107</v>
+      </c>
+      <c r="D263" t="s">
+        <v>30</v>
+      </c>
+      <c r="E263" s="1">
+        <v>6.47</v>
+      </c>
+      <c r="G263" s="1">
+        <v>29.18</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A264" t="s">
+        <v>105</v>
+      </c>
+      <c r="B264" t="s">
+        <v>106</v>
+      </c>
+      <c r="C264" t="s">
+        <v>107</v>
+      </c>
+      <c r="D264" t="s">
+        <v>31</v>
+      </c>
+      <c r="E264" s="1">
+        <v>6.47</v>
+      </c>
+      <c r="G264" s="1">
+        <v>29.66</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A265" t="s">
+        <v>105</v>
+      </c>
+      <c r="B265" t="s">
+        <v>106</v>
+      </c>
+      <c r="C265" t="s">
+        <v>107</v>
+      </c>
+      <c r="D265" t="s">
+        <v>32</v>
+      </c>
+      <c r="E265" s="1">
+        <v>6.52</v>
+      </c>
+      <c r="G265" s="1">
+        <v>27.15</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A266" t="s">
+        <v>108</v>
+      </c>
+      <c r="B266" t="s">
+        <v>109</v>
+      </c>
+      <c r="C266" t="s">
+        <v>110</v>
+      </c>
+      <c r="D266" t="s">
+        <v>27</v>
+      </c>
+      <c r="F266" s="1">
+        <v>0.77</v>
+      </c>
+      <c r="G266" s="1">
+        <v>31.53</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A267" t="s">
+        <v>108</v>
+      </c>
+      <c r="B267" t="s">
+        <v>109</v>
+      </c>
+      <c r="C267" t="s">
+        <v>110</v>
+      </c>
+      <c r="D267" t="s">
+        <v>28</v>
+      </c>
+      <c r="E267" s="1">
+        <v>4.96</v>
+      </c>
+      <c r="F267" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="G267" s="1">
+        <v>30.23</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A268" t="s">
+        <v>108</v>
+      </c>
+      <c r="B268" t="s">
+        <v>109</v>
+      </c>
+      <c r="C268" t="s">
+        <v>110</v>
+      </c>
+      <c r="D268" t="s">
+        <v>29</v>
+      </c>
+      <c r="E268" s="1">
+        <v>5.83</v>
+      </c>
+      <c r="F268" s="1">
+        <v>0.59</v>
+      </c>
+      <c r="G268" s="1">
+        <v>31.74</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A269" t="s">
+        <v>108</v>
+      </c>
+      <c r="B269" t="s">
+        <v>109</v>
+      </c>
+      <c r="C269" t="s">
+        <v>110</v>
+      </c>
+      <c r="D269" t="s">
+        <v>30</v>
+      </c>
+      <c r="E269" s="1">
+        <v>5.72</v>
+      </c>
+      <c r="F269" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="G269" s="1">
+        <v>29.91</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A270" t="s">
+        <v>108</v>
+      </c>
+      <c r="B270" t="s">
+        <v>109</v>
+      </c>
+      <c r="C270" t="s">
+        <v>110</v>
+      </c>
+      <c r="D270" t="s">
+        <v>31</v>
+      </c>
+      <c r="E270" s="1">
+        <v>5.49</v>
+      </c>
+      <c r="F270" s="1">
+        <v>0.68</v>
+      </c>
+      <c r="G270" s="1">
+        <v>28.71</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A271" t="s">
+        <v>108</v>
+      </c>
+      <c r="B271" t="s">
+        <v>109</v>
+      </c>
+      <c r="C271" t="s">
+        <v>110</v>
+      </c>
+      <c r="D271" t="s">
+        <v>32</v>
+      </c>
+      <c r="E271" s="1">
+        <v>6.23</v>
+      </c>
+      <c r="F271" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="G271" s="1">
+        <v>26.35</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A272" t="s">
+        <v>111</v>
+      </c>
+      <c r="B272" t="s">
+        <v>112</v>
+      </c>
+      <c r="C272" t="s">
+        <v>113</v>
+      </c>
+      <c r="D272" t="s">
+        <v>28</v>
+      </c>
+      <c r="E272" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="F272" s="1">
+        <v>1.21</v>
+      </c>
+      <c r="G272" s="1">
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A273" t="s">
+        <v>111</v>
+      </c>
+      <c r="B273" t="s">
+        <v>112</v>
+      </c>
+      <c r="C273" t="s">
+        <v>113</v>
+      </c>
+      <c r="D273" t="s">
+        <v>29</v>
+      </c>
+      <c r="E273" s="1">
+        <v>4.66</v>
+      </c>
+      <c r="F273" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G273" s="1">
+        <v>28.1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A274" t="s">
+        <v>111</v>
+      </c>
+      <c r="B274" t="s">
+        <v>112</v>
+      </c>
+      <c r="C274" t="s">
+        <v>113</v>
+      </c>
+      <c r="D274" t="s">
+        <v>30</v>
+      </c>
+      <c r="E274" s="1">
+        <v>6.16</v>
+      </c>
+      <c r="F274" s="1">
+        <v>1.08</v>
+      </c>
+      <c r="G274" s="1">
+        <v>26.73</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A275" t="s">
+        <v>111</v>
+      </c>
+      <c r="B275" t="s">
+        <v>112</v>
+      </c>
+      <c r="C275" t="s">
+        <v>113</v>
+      </c>
+      <c r="D275" t="s">
+        <v>31</v>
+      </c>
+      <c r="E275" s="1">
+        <v>6.24</v>
+      </c>
+      <c r="F275" s="1">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="G275" s="1">
+        <v>26.3</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A276" t="s">
+        <v>111</v>
+      </c>
+      <c r="B276" t="s">
+        <v>112</v>
+      </c>
+      <c r="C276" t="s">
+        <v>113</v>
+      </c>
+      <c r="D276" t="s">
+        <v>32</v>
+      </c>
+      <c r="E276" s="1">
+        <v>6.52</v>
+      </c>
+      <c r="F276" s="1">
+        <v>1.07</v>
+      </c>
+      <c r="G276" s="1">
+        <v>23.84</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A277" t="s">
+        <v>114</v>
+      </c>
+      <c r="B277" t="s">
+        <v>115</v>
+      </c>
+      <c r="C277" t="s">
+        <v>116</v>
+      </c>
+      <c r="D277" t="s">
+        <v>28</v>
+      </c>
+      <c r="G277" s="1">
+        <v>34.03</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A278" t="s">
+        <v>114</v>
+      </c>
+      <c r="B278" t="s">
+        <v>115</v>
+      </c>
+      <c r="C278" t="s">
+        <v>116</v>
+      </c>
+      <c r="D278" t="s">
+        <v>29</v>
+      </c>
+      <c r="E278" s="1">
+        <v>7.6</v>
+      </c>
+      <c r="G278" s="1">
+        <v>32.630000000000003</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A279" t="s">
+        <v>114</v>
+      </c>
+      <c r="B279" t="s">
+        <v>117</v>
+      </c>
+      <c r="C279" t="s">
+        <v>116</v>
+      </c>
+      <c r="D279" t="s">
+        <v>30</v>
+      </c>
+      <c r="E279" s="1">
+        <v>6.65</v>
+      </c>
+      <c r="G279" s="1">
+        <v>34.18</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A280" t="s">
+        <v>114</v>
+      </c>
+      <c r="B280" t="s">
+        <v>117</v>
+      </c>
+      <c r="C280" t="s">
+        <v>116</v>
+      </c>
+      <c r="D280" t="s">
+        <v>31</v>
+      </c>
+      <c r="E280" s="1">
+        <v>7.49</v>
+      </c>
+      <c r="G280" s="1">
+        <v>34.61</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A281" t="s">
+        <v>114</v>
+      </c>
+      <c r="B281" t="s">
+        <v>117</v>
+      </c>
+      <c r="C281" t="s">
+        <v>116</v>
+      </c>
+      <c r="D281" t="s">
+        <v>32</v>
+      </c>
+      <c r="E281" s="1">
+        <v>6.67</v>
+      </c>
+      <c r="G281" s="1">
+        <v>32.72</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A282" t="s">
+        <v>118</v>
+      </c>
+      <c r="B282" t="s">
+        <v>119</v>
+      </c>
+      <c r="C282" t="s">
+        <v>120</v>
+      </c>
+      <c r="D282" t="s">
+        <v>30</v>
+      </c>
+      <c r="E282" s="1">
+        <v>6.59</v>
+      </c>
+      <c r="F282" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="G282" s="1">
+        <v>32.229999999999997</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A283" t="s">
+        <v>118</v>
+      </c>
+      <c r="B283" t="s">
+        <v>119</v>
+      </c>
+      <c r="C283" t="s">
+        <v>120</v>
+      </c>
+      <c r="D283" t="s">
+        <v>31</v>
+      </c>
+      <c r="E283" s="1">
+        <v>6.77</v>
+      </c>
+      <c r="F283" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="G283" s="1">
+        <v>30.25</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A284" t="s">
+        <v>118</v>
+      </c>
+      <c r="B284" t="s">
+        <v>119</v>
+      </c>
+      <c r="C284" t="s">
+        <v>120</v>
+      </c>
+      <c r="D284" t="s">
+        <v>32</v>
+      </c>
+      <c r="E284" s="1">
+        <v>6.69</v>
+      </c>
+      <c r="F284" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="G284" s="1">
+        <v>28.79</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A285" t="s">
+        <v>121</v>
+      </c>
+      <c r="B285" t="s">
+        <v>122</v>
+      </c>
+      <c r="C285" t="s">
+        <v>123</v>
+      </c>
+      <c r="D285" t="s">
+        <v>32</v>
+      </c>
+      <c r="E285" s="1">
+        <v>5.7</v>
+      </c>
+      <c r="G285" s="1">
+        <v>28.64</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A286" t="s">
+        <v>124</v>
+      </c>
+      <c r="B286" t="s">
+        <v>125</v>
+      </c>
+      <c r="C286" t="s">
+        <v>126</v>
+      </c>
+      <c r="D286" t="s">
+        <v>29</v>
+      </c>
+      <c r="E286" s="1">
+        <v>6.49</v>
+      </c>
+      <c r="F286" s="1">
+        <v>1.08</v>
+      </c>
+      <c r="G286" s="1">
+        <v>26.18</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A287" t="s">
+        <v>124</v>
+      </c>
+      <c r="B287" t="s">
+        <v>125</v>
+      </c>
+      <c r="C287" t="s">
+        <v>126</v>
+      </c>
+      <c r="D287" t="s">
+        <v>30</v>
+      </c>
+      <c r="E287" s="1">
+        <v>6.79</v>
+      </c>
+      <c r="F287" s="1">
+        <v>0.69</v>
+      </c>
+      <c r="G287" s="1">
+        <v>27.96</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A288" t="s">
+        <v>124</v>
+      </c>
+      <c r="B288" t="s">
+        <v>125</v>
+      </c>
+      <c r="C288" t="s">
+        <v>126</v>
+      </c>
+      <c r="D288" t="s">
+        <v>31</v>
+      </c>
+      <c r="E288" s="1">
+        <v>6.34</v>
+      </c>
+      <c r="F288" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="G288" s="1">
+        <v>26.46</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A289" t="s">
+        <v>124</v>
+      </c>
+      <c r="B289" t="s">
+        <v>125</v>
+      </c>
+      <c r="C289" t="s">
+        <v>126</v>
+      </c>
+      <c r="D289" t="s">
+        <v>32</v>
+      </c>
+      <c r="E289" s="1">
+        <v>6.63</v>
+      </c>
+      <c r="F289" s="1">
+        <v>0.63</v>
+      </c>
+      <c r="G289" s="1">
+        <v>22.53</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A290" t="s">
+        <v>127</v>
+      </c>
+      <c r="B290" t="s">
+        <v>128</v>
+      </c>
+      <c r="C290" t="s">
+        <v>129</v>
+      </c>
+      <c r="D290" t="s">
+        <v>28</v>
+      </c>
+      <c r="E290" s="1">
+        <v>4.68</v>
+      </c>
+      <c r="F290" s="1">
+        <v>0.74</v>
+      </c>
+      <c r="G290" s="1">
+        <v>29.21</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A291" t="s">
+        <v>127</v>
+      </c>
+      <c r="B291" t="s">
+        <v>128</v>
+      </c>
+      <c r="C291" t="s">
+        <v>129</v>
+      </c>
+      <c r="D291" t="s">
+        <v>29</v>
+      </c>
+      <c r="E291" s="1">
+        <v>5.82</v>
+      </c>
+      <c r="F291" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="G291" s="1">
+        <v>28.8</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A292" t="s">
+        <v>127</v>
+      </c>
+      <c r="B292" t="s">
+        <v>128</v>
+      </c>
+      <c r="C292" t="s">
+        <v>129</v>
+      </c>
+      <c r="D292" t="s">
+        <v>30</v>
+      </c>
+      <c r="E292" s="1">
+        <v>5.91</v>
+      </c>
+      <c r="F292" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="G292" s="1">
+        <v>28.68</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A293" t="s">
+        <v>127</v>
+      </c>
+      <c r="B293" t="s">
+        <v>128</v>
+      </c>
+      <c r="C293" t="s">
+        <v>129</v>
+      </c>
+      <c r="D293" t="s">
+        <v>31</v>
+      </c>
+      <c r="E293" s="1">
+        <v>5.95</v>
+      </c>
+      <c r="F293" s="1">
+        <v>0.87</v>
+      </c>
+      <c r="G293" s="1">
+        <v>25.64</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A294" t="s">
+        <v>127</v>
+      </c>
+      <c r="B294" t="s">
+        <v>128</v>
+      </c>
+      <c r="C294" t="s">
+        <v>129</v>
+      </c>
+      <c r="D294" t="s">
+        <v>32</v>
+      </c>
+      <c r="E294" s="1">
+        <v>7.01</v>
+      </c>
+      <c r="F294" s="1">
+        <v>0.77</v>
+      </c>
+      <c r="G294" s="1">
+        <v>23.46</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A295" t="s">
+        <v>130</v>
+      </c>
+      <c r="B295" t="s">
+        <v>131</v>
+      </c>
+      <c r="C295" t="s">
+        <v>132</v>
+      </c>
+      <c r="D295" t="s">
+        <v>28</v>
+      </c>
+      <c r="E295" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="F295" s="1">
+        <v>0.79</v>
+      </c>
+      <c r="G295" s="1">
+        <v>35.96</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A296" t="s">
+        <v>130</v>
+      </c>
+      <c r="B296" t="s">
+        <v>131</v>
+      </c>
+      <c r="C296" t="s">
+        <v>132</v>
+      </c>
+      <c r="D296" t="s">
+        <v>29</v>
+      </c>
+      <c r="E296" s="1">
+        <v>7.95</v>
+      </c>
+      <c r="F296" s="1">
+        <v>0.71</v>
+      </c>
+      <c r="G296" s="1">
+        <v>38.29</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A297" t="s">
+        <v>130</v>
+      </c>
+      <c r="B297" t="s">
+        <v>131</v>
+      </c>
+      <c r="C297" t="s">
+        <v>132</v>
+      </c>
+      <c r="D297" t="s">
+        <v>30</v>
+      </c>
+      <c r="E297" s="1">
+        <v>8.83</v>
+      </c>
+      <c r="F297" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="G297" s="1">
+        <v>32.03</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A298" t="s">
+        <v>130</v>
+      </c>
+      <c r="B298" t="s">
+        <v>131</v>
+      </c>
+      <c r="C298" t="s">
+        <v>132</v>
+      </c>
+      <c r="D298" t="s">
+        <v>31</v>
+      </c>
+      <c r="E298" s="1">
+        <v>8.7100000000000009</v>
+      </c>
+      <c r="F298" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="G298" s="1">
+        <v>31.66</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A299" t="s">
+        <v>130</v>
+      </c>
+      <c r="B299" t="s">
+        <v>131</v>
+      </c>
+      <c r="C299" t="s">
+        <v>132</v>
+      </c>
+      <c r="D299" t="s">
+        <v>32</v>
+      </c>
+      <c r="E299" s="1">
+        <v>7.63</v>
+      </c>
+      <c r="F299" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="G299" s="1">
+        <v>31.47</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A300" t="s">
+        <v>133</v>
+      </c>
+      <c r="B300" t="s">
+        <v>134</v>
+      </c>
+      <c r="C300" t="s">
+        <v>135</v>
+      </c>
+      <c r="D300" t="s">
+        <v>29</v>
+      </c>
+      <c r="F300" s="1">
+        <v>0.79</v>
+      </c>
+      <c r="G300" s="1">
+        <v>38.04</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A301" t="s">
+        <v>133</v>
+      </c>
+      <c r="B301" t="s">
+        <v>134</v>
+      </c>
+      <c r="C301" t="s">
+        <v>135</v>
+      </c>
+      <c r="D301" t="s">
+        <v>30</v>
+      </c>
+      <c r="F301" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="G301" s="1">
+        <v>37.729999999999997</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A302" t="s">
+        <v>133</v>
+      </c>
+      <c r="B302" t="s">
+        <v>134</v>
+      </c>
+      <c r="C302" t="s">
+        <v>135</v>
+      </c>
+      <c r="D302" t="s">
+        <v>31</v>
+      </c>
+      <c r="E302" s="1">
+        <v>7.24</v>
+      </c>
+      <c r="F302" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="G302" s="1">
+        <v>31.68</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A303" t="s">
+        <v>133</v>
+      </c>
+      <c r="B303" t="s">
+        <v>134</v>
+      </c>
+      <c r="C303" t="s">
+        <v>135</v>
+      </c>
+      <c r="D303" t="s">
+        <v>32</v>
+      </c>
+      <c r="E303" s="1">
+        <v>6.94</v>
+      </c>
+      <c r="F303" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="G303" s="1">
+        <v>29.74</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A304" t="s">
+        <v>136</v>
+      </c>
+      <c r="B304" t="s">
+        <v>137</v>
+      </c>
+      <c r="C304" t="s">
+        <v>138</v>
+      </c>
+      <c r="D304" t="s">
+        <v>28</v>
+      </c>
+      <c r="E304" s="1">
+        <v>6.94</v>
+      </c>
+      <c r="F304" s="1">
+        <v>0.88</v>
+      </c>
+      <c r="G304" s="1">
+        <v>37.4</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A305" t="s">
+        <v>136</v>
+      </c>
+      <c r="B305" t="s">
+        <v>137</v>
+      </c>
+      <c r="C305" t="s">
+        <v>138</v>
+      </c>
+      <c r="D305" t="s">
+        <v>29</v>
+      </c>
+      <c r="E305" s="1">
+        <v>6.39</v>
+      </c>
+      <c r="F305" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="G305" s="1">
+        <v>37.14</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A306" t="s">
+        <v>136</v>
+      </c>
+      <c r="B306" t="s">
+        <v>137</v>
+      </c>
+      <c r="C306" t="s">
+        <v>138</v>
+      </c>
+      <c r="D306" t="s">
+        <v>30</v>
+      </c>
+      <c r="E306" s="1">
+        <v>6.78</v>
+      </c>
+      <c r="F306" s="1">
+        <v>1.01</v>
+      </c>
+      <c r="G306" s="1">
+        <v>36.53</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A307" t="s">
+        <v>136</v>
+      </c>
+      <c r="B307" t="s">
+        <v>137</v>
+      </c>
+      <c r="C307" t="s">
+        <v>138</v>
+      </c>
+      <c r="D307" t="s">
+        <v>31</v>
+      </c>
+      <c r="E307" s="1">
+        <v>7.97</v>
+      </c>
+      <c r="F307" s="1">
+        <v>1.08</v>
+      </c>
+      <c r="G307" s="1">
+        <v>38.24</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A308" t="s">
+        <v>136</v>
+      </c>
+      <c r="B308" t="s">
+        <v>137</v>
+      </c>
+      <c r="C308" t="s">
+        <v>138</v>
+      </c>
+      <c r="D308" t="s">
+        <v>32</v>
+      </c>
+      <c r="E308" s="1">
+        <v>7.27</v>
+      </c>
+      <c r="F308" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="G308" s="1">
+        <v>42.77</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A309" t="s">
+        <v>139</v>
+      </c>
+      <c r="B309" t="s">
+        <v>140</v>
+      </c>
+      <c r="C309" t="s">
+        <v>141</v>
+      </c>
+      <c r="D309" t="s">
+        <v>29</v>
+      </c>
+      <c r="G309" s="1">
+        <v>35.01</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A310" t="s">
+        <v>139</v>
+      </c>
+      <c r="B310" t="s">
+        <v>140</v>
+      </c>
+      <c r="C310" t="s">
+        <v>141</v>
+      </c>
+      <c r="D310" t="s">
+        <v>30</v>
+      </c>
+      <c r="E310" s="1">
+        <v>6.12</v>
+      </c>
+      <c r="G310" s="1">
+        <v>33.42</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A311" t="s">
+        <v>139</v>
+      </c>
+      <c r="B311" t="s">
+        <v>140</v>
+      </c>
+      <c r="C311" t="s">
+        <v>141</v>
+      </c>
+      <c r="D311" t="s">
+        <v>31</v>
+      </c>
+      <c r="E311" s="1">
+        <v>6.6</v>
+      </c>
+      <c r="G311" s="1">
+        <v>29.69</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A312" t="s">
+        <v>139</v>
+      </c>
+      <c r="B312" t="s">
+        <v>140</v>
+      </c>
+      <c r="C312" t="s">
+        <v>141</v>
+      </c>
+      <c r="D312" t="s">
+        <v>32</v>
+      </c>
+      <c r="E312" s="1">
+        <v>6.54</v>
+      </c>
+      <c r="G312" s="1">
+        <v>30.36</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A313" t="s">
+        <v>142</v>
+      </c>
+      <c r="B313" t="s">
+        <v>143</v>
+      </c>
+      <c r="C313" t="s">
+        <v>144</v>
+      </c>
+      <c r="D313" t="s">
+        <v>30</v>
+      </c>
+      <c r="E313" s="1">
+        <v>7.92</v>
+      </c>
+      <c r="F313" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="G313" s="1">
+        <v>32.97</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A314" t="s">
+        <v>142</v>
+      </c>
+      <c r="B314" t="s">
+        <v>143</v>
+      </c>
+      <c r="C314" t="s">
+        <v>144</v>
+      </c>
+      <c r="D314" t="s">
+        <v>31</v>
+      </c>
+      <c r="E314" s="1">
+        <v>7.46</v>
+      </c>
+      <c r="F314" s="1">
+        <v>0.68</v>
+      </c>
+      <c r="G314" s="1">
+        <v>31.88</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A315" t="s">
+        <v>142</v>
+      </c>
+      <c r="B315" t="s">
+        <v>143</v>
+      </c>
+      <c r="C315" t="s">
+        <v>144</v>
+      </c>
+      <c r="D315" t="s">
+        <v>32</v>
+      </c>
+      <c r="E315" s="1">
+        <v>6.14</v>
+      </c>
+      <c r="F315" s="1">
+        <v>0.59</v>
+      </c>
+      <c r="G315" s="1">
+        <v>33.61</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A316" t="s">
+        <v>145</v>
+      </c>
+      <c r="B316" t="s">
+        <v>146</v>
+      </c>
+      <c r="C316" t="s">
+        <v>147</v>
+      </c>
+      <c r="D316" t="s">
+        <v>30</v>
+      </c>
+      <c r="E316" s="1">
+        <v>5.67</v>
+      </c>
+      <c r="F316" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="G316" s="1">
+        <v>34.119999999999997</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A317" t="s">
+        <v>145</v>
+      </c>
+      <c r="B317" t="s">
+        <v>146</v>
+      </c>
+      <c r="C317" t="s">
+        <v>147</v>
+      </c>
+      <c r="D317" t="s">
+        <v>31</v>
+      </c>
+      <c r="F317" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="G317" s="1">
+        <v>30.72</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A318" t="s">
+        <v>145</v>
+      </c>
+      <c r="B318" t="s">
+        <v>146</v>
+      </c>
+      <c r="C318" t="s">
+        <v>147</v>
+      </c>
+      <c r="D318" t="s">
+        <v>32</v>
+      </c>
+      <c r="E318" s="1">
+        <v>5.83</v>
+      </c>
+      <c r="F318" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="G318" s="1">
+        <v>29.69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>